--- a/d-4/5a_semana/CMIG4/Simulacao_Investimentos5CMIG4.xlsx
+++ b/d-4/5a_semana/CMIG4/Simulacao_Investimentos5CMIG4.xlsx
@@ -1008,7 +1008,7 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -1034,7 +1034,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1055,7 +1055,7 @@
     <xf borderId="4" fillId="3" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="169" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1064,13 +1064,13 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B3" s="7">
         <f>'1993-1998 (Parte 5)'!K75</f>
-        <v>107338</v>
+        <v>214707</v>
       </c>
       <c r="C3" s="8">
         <f>'1993-1998 (Parte 5)'!C75</f>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D3" s="8">
         <f>B3*C3</f>
-        <v>66549.56</v>
+        <v>133118.34</v>
       </c>
       <c r="E3" s="7">
         <f>72 + 1</f>
@@ -1776,11 +1776,11 @@
       </c>
       <c r="H3" s="10">
         <f>(1+I3)^(12)-1</f>
-        <v>0.2650713133</v>
+        <v>0.2566216093</v>
       </c>
       <c r="I3" s="11">
         <f>IRR(M3:M219,0.02)</f>
-        <v>0.0197872644</v>
+        <v>0.01921790304</v>
       </c>
       <c r="J3" s="1"/>
       <c r="M3" s="12">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B4" s="14">
         <f>'1999-2004 (Parte 4)'!K75</f>
-        <v>181546</v>
+        <v>292336</v>
       </c>
       <c r="C4" s="15">
         <f>'1999-2004 (Parte 4)'!C75</f>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D5" si="1">C4*B4</f>
-        <v>254164.4</v>
+        <v>409270.4</v>
       </c>
       <c r="E4" s="14">
         <f t="shared" ref="E4:E5" si="2">E3+72</f>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="H4" s="18">
         <f t="array" ref="H4">NPV(I5,B9:B80,C9:C80,D9:D81,)</f>
-        <v>756071.6279</v>
+        <v>1190939.44</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="20" t="s">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B5" s="23">
         <f>'2005-2010 (Parte 3)'!K75</f>
-        <v>639568</v>
+        <v>993294</v>
       </c>
       <c r="C5" s="24">
         <f>'2005-2010 (Parte 3)'!C75</f>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D5" s="25">
         <f t="shared" si="1"/>
-        <v>2065804.64</v>
+        <v>3208339.62</v>
       </c>
       <c r="E5" s="23">
         <f t="shared" si="2"/>
@@ -1896,10 +1896,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="12">
+      <c r="B9" s="33">
         <v>0.0</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="28">
         <v>-750.0</v>
       </c>
       <c r="D9" s="34">
@@ -1911,11 +1911,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="21">
+      <c r="B10" s="35">
         <f t="shared" ref="B10:B20" si="4">B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="21">
         <v>-750.0</v>
       </c>
       <c r="D10" s="36">
@@ -1928,11 +1928,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="28">
+      <c r="B11" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="28">
         <v>-750.0</v>
       </c>
       <c r="D11" s="34">
@@ -1945,11 +1945,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="21">
+      <c r="B12" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="21">
         <v>-750.0</v>
       </c>
       <c r="D12" s="36">
@@ -1962,11 +1962,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="28">
+      <c r="B13" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="28">
         <v>-750.0</v>
       </c>
       <c r="D13" s="34">
@@ -1979,11 +1979,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="21">
+      <c r="B14" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="21">
         <v>-750.0</v>
       </c>
       <c r="D14" s="36">
@@ -1996,27 +1996,27 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="28">
+      <c r="B15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="28">
         <v>-750.0</v>
       </c>
       <c r="D15" s="34">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
-      <c r="M15" s="12">
-        <v>-750.0</v>
+      <c r="M15" s="28">
+        <v>-1500.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="21">
+      <c r="B16" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="21">
         <v>-750.0</v>
       </c>
       <c r="D16" s="36">
@@ -2025,15 +2025,15 @@
       </c>
       <c r="M16" s="21">
         <f t="shared" ref="M16:M74" si="6">M15</f>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="28">
+      <c r="B17" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="28">
         <v>-750.0</v>
       </c>
       <c r="D17" s="34">
@@ -2042,15 +2042,15 @@
       </c>
       <c r="M17" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="21">
+      <c r="B18" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="21">
         <v>-750.0</v>
       </c>
       <c r="D18" s="36">
@@ -2059,15 +2059,15 @@
       </c>
       <c r="M18" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="28">
+      <c r="B19" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="28">
         <v>-750.0</v>
       </c>
       <c r="D19" s="34">
@@ -2076,15 +2076,15 @@
       </c>
       <c r="M19" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="21">
+      <c r="B20" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="21">
         <v>-750.0</v>
       </c>
       <c r="D20" s="36">
@@ -2093,14 +2093,14 @@
       </c>
       <c r="M20" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="12">
-        <v>-750.0</v>
-      </c>
-      <c r="C21" s="33">
+      <c r="B21" s="33">
+        <v>-1500.0</v>
+      </c>
+      <c r="C21" s="28">
         <v>-750.0</v>
       </c>
       <c r="D21" s="34">
@@ -2109,15 +2109,15 @@
       </c>
       <c r="M21" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="21">
+      <c r="B22" s="35">
         <f t="shared" ref="B22:B80" si="7">B21</f>
-        <v>-750</v>
-      </c>
-      <c r="C22" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C22" s="21">
         <v>-750.0</v>
       </c>
       <c r="D22" s="36">
@@ -2126,15 +2126,15 @@
       </c>
       <c r="M22" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="28">
+      <c r="B23" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C23" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C23" s="28">
         <v>-750.0</v>
       </c>
       <c r="D23" s="34">
@@ -2143,15 +2143,15 @@
       </c>
       <c r="M23" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="21">
+      <c r="B24" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C24" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C24" s="21">
         <v>-750.0</v>
       </c>
       <c r="D24" s="36">
@@ -2160,15 +2160,15 @@
       </c>
       <c r="M24" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="28">
+      <c r="B25" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C25" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C25" s="28">
         <v>-750.0</v>
       </c>
       <c r="D25" s="34">
@@ -2177,15 +2177,15 @@
       </c>
       <c r="M25" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="21">
+      <c r="B26" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C26" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C26" s="21">
         <v>-750.0</v>
       </c>
       <c r="D26" s="36">
@@ -2194,15 +2194,15 @@
       </c>
       <c r="M26" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="28">
+      <c r="B27" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C27" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C27" s="28">
         <v>-750.0</v>
       </c>
       <c r="D27" s="34">
@@ -2211,15 +2211,15 @@
       </c>
       <c r="M27" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="21">
+      <c r="B28" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C28" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C28" s="21">
         <v>-750.0</v>
       </c>
       <c r="D28" s="36">
@@ -2228,15 +2228,15 @@
       </c>
       <c r="M28" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="28">
+      <c r="B29" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C29" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C29" s="28">
         <v>-750.0</v>
       </c>
       <c r="D29" s="34">
@@ -2245,15 +2245,15 @@
       </c>
       <c r="M29" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="21">
+      <c r="B30" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C30" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C30" s="21">
         <v>-750.0</v>
       </c>
       <c r="D30" s="36">
@@ -2262,15 +2262,15 @@
       </c>
       <c r="M30" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="28">
+      <c r="B31" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C31" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C31" s="28">
         <v>-750.0</v>
       </c>
       <c r="D31" s="34">
@@ -2279,15 +2279,15 @@
       </c>
       <c r="M31" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="21">
+      <c r="B32" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C32" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C32" s="21">
         <v>-750.0</v>
       </c>
       <c r="D32" s="36">
@@ -2296,15 +2296,15 @@
       </c>
       <c r="M32" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="28">
+      <c r="B33" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C33" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C33" s="28">
         <v>-750.0</v>
       </c>
       <c r="D33" s="34">
@@ -2313,15 +2313,15 @@
       </c>
       <c r="M33" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="21">
+      <c r="B34" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C34" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C34" s="21">
         <v>-750.0</v>
       </c>
       <c r="D34" s="36">
@@ -2330,15 +2330,15 @@
       </c>
       <c r="M34" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="28">
+      <c r="B35" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C35" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C35" s="28">
         <v>-750.0</v>
       </c>
       <c r="D35" s="34">
@@ -2347,15 +2347,15 @@
       </c>
       <c r="M35" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="21">
+      <c r="B36" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C36" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C36" s="21">
         <v>-750.0</v>
       </c>
       <c r="D36" s="36">
@@ -2364,15 +2364,15 @@
       </c>
       <c r="M36" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="28">
+      <c r="B37" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C37" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C37" s="28">
         <v>-750.0</v>
       </c>
       <c r="D37" s="34">
@@ -2381,15 +2381,15 @@
       </c>
       <c r="M37" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="21">
+      <c r="B38" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C38" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C38" s="21">
         <v>-750.0</v>
       </c>
       <c r="D38" s="36">
@@ -2398,15 +2398,15 @@
       </c>
       <c r="M38" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="28">
+      <c r="B39" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C39" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C39" s="28">
         <v>-750.0</v>
       </c>
       <c r="D39" s="34">
@@ -2415,15 +2415,15 @@
       </c>
       <c r="M39" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="21">
+      <c r="B40" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C40" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C40" s="21">
         <v>-750.0</v>
       </c>
       <c r="D40" s="36">
@@ -2432,15 +2432,15 @@
       </c>
       <c r="M40" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="28">
+      <c r="B41" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C41" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C41" s="28">
         <v>-750.0</v>
       </c>
       <c r="D41" s="34">
@@ -2449,15 +2449,15 @@
       </c>
       <c r="M41" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="21">
+      <c r="B42" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C42" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C42" s="21">
         <v>-750.0</v>
       </c>
       <c r="D42" s="36">
@@ -2466,15 +2466,15 @@
       </c>
       <c r="M42" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="28">
+      <c r="B43" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C43" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C43" s="28">
         <v>-750.0</v>
       </c>
       <c r="D43" s="34">
@@ -2483,15 +2483,15 @@
       </c>
       <c r="M43" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="21">
+      <c r="B44" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C44" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C44" s="21">
         <v>-750.0</v>
       </c>
       <c r="D44" s="36">
@@ -2500,15 +2500,15 @@
       </c>
       <c r="M44" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="28">
+      <c r="B45" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C45" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C45" s="28">
         <v>-750.0</v>
       </c>
       <c r="D45" s="34">
@@ -2517,15 +2517,15 @@
       </c>
       <c r="M45" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="21">
+      <c r="B46" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C46" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C46" s="21">
         <v>-750.0</v>
       </c>
       <c r="D46" s="36">
@@ -2534,15 +2534,15 @@
       </c>
       <c r="M46" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="28">
+      <c r="B47" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C47" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C47" s="28">
         <v>-750.0</v>
       </c>
       <c r="D47" s="34">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="M47" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="21">
+      <c r="B48" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C48" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C48" s="21">
         <v>-750.0</v>
       </c>
       <c r="D48" s="36">
@@ -2568,15 +2568,15 @@
       </c>
       <c r="M48" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="28">
+      <c r="B49" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C49" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C49" s="28">
         <v>-750.0</v>
       </c>
       <c r="D49" s="34">
@@ -2585,15 +2585,15 @@
       </c>
       <c r="M49" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="21">
+      <c r="B50" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C50" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C50" s="21">
         <v>-750.0</v>
       </c>
       <c r="D50" s="36">
@@ -2602,15 +2602,15 @@
       </c>
       <c r="M50" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="28">
+      <c r="B51" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C51" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C51" s="28">
         <v>-750.0</v>
       </c>
       <c r="D51" s="34">
@@ -2619,15 +2619,15 @@
       </c>
       <c r="M51" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="21">
+      <c r="B52" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C52" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C52" s="21">
         <v>-750.0</v>
       </c>
       <c r="D52" s="36">
@@ -2636,15 +2636,15 @@
       </c>
       <c r="M52" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="28">
+      <c r="B53" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C53" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C53" s="28">
         <v>-750.0</v>
       </c>
       <c r="D53" s="34">
@@ -2653,15 +2653,15 @@
       </c>
       <c r="M53" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="21">
+      <c r="B54" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C54" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C54" s="21">
         <v>-750.0</v>
       </c>
       <c r="D54" s="36">
@@ -2670,15 +2670,15 @@
       </c>
       <c r="M54" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="28">
+      <c r="B55" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C55" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C55" s="28">
         <v>-750.0</v>
       </c>
       <c r="D55" s="34">
@@ -2687,15 +2687,15 @@
       </c>
       <c r="M55" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="21">
+      <c r="B56" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C56" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C56" s="21">
         <v>-750.0</v>
       </c>
       <c r="D56" s="36">
@@ -2704,15 +2704,15 @@
       </c>
       <c r="M56" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="28">
+      <c r="B57" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C57" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C57" s="28">
         <v>-750.0</v>
       </c>
       <c r="D57" s="34">
@@ -2721,15 +2721,15 @@
       </c>
       <c r="M57" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="21">
+      <c r="B58" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C58" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C58" s="21">
         <v>-750.0</v>
       </c>
       <c r="D58" s="36">
@@ -2738,15 +2738,15 @@
       </c>
       <c r="M58" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="28">
+      <c r="B59" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C59" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C59" s="28">
         <v>-750.0</v>
       </c>
       <c r="D59" s="34">
@@ -2755,15 +2755,15 @@
       </c>
       <c r="M59" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="21">
+      <c r="B60" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C60" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C60" s="21">
         <v>-750.0</v>
       </c>
       <c r="D60" s="36">
@@ -2772,15 +2772,15 @@
       </c>
       <c r="M60" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="28">
+      <c r="B61" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C61" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C61" s="28">
         <v>-750.0</v>
       </c>
       <c r="D61" s="34">
@@ -2789,15 +2789,15 @@
       </c>
       <c r="M61" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="21">
+      <c r="B62" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C62" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C62" s="21">
         <v>-750.0</v>
       </c>
       <c r="D62" s="36">
@@ -2806,15 +2806,15 @@
       </c>
       <c r="M62" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="28">
+      <c r="B63" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C63" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C63" s="28">
         <v>-750.0</v>
       </c>
       <c r="D63" s="34">
@@ -2823,15 +2823,15 @@
       </c>
       <c r="M63" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="21">
+      <c r="B64" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C64" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C64" s="21">
         <v>-750.0</v>
       </c>
       <c r="D64" s="36">
@@ -2840,15 +2840,15 @@
       </c>
       <c r="M64" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="28">
+      <c r="B65" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C65" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C65" s="28">
         <v>-750.0</v>
       </c>
       <c r="D65" s="34">
@@ -2857,15 +2857,15 @@
       </c>
       <c r="M65" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="21">
+      <c r="B66" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C66" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C66" s="21">
         <v>-750.0</v>
       </c>
       <c r="D66" s="36">
@@ -2874,15 +2874,15 @@
       </c>
       <c r="M66" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="28">
+      <c r="B67" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C67" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C67" s="28">
         <v>-750.0</v>
       </c>
       <c r="D67" s="34">
@@ -2891,15 +2891,15 @@
       </c>
       <c r="M67" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="21">
+      <c r="B68" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C68" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C68" s="21">
         <v>-750.0</v>
       </c>
       <c r="D68" s="36">
@@ -2908,15 +2908,15 @@
       </c>
       <c r="M68" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="28">
+      <c r="B69" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C69" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C69" s="28">
         <v>-750.0</v>
       </c>
       <c r="D69" s="34">
@@ -2925,15 +2925,15 @@
       </c>
       <c r="M69" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="21">
+      <c r="B70" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C70" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C70" s="21">
         <v>-750.0</v>
       </c>
       <c r="D70" s="36">
@@ -2942,15 +2942,15 @@
       </c>
       <c r="M70" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="28">
+      <c r="B71" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C71" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C71" s="28">
         <v>-750.0</v>
       </c>
       <c r="D71" s="34">
@@ -2959,15 +2959,15 @@
       </c>
       <c r="M71" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="21">
+      <c r="B72" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C72" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C72" s="21">
         <v>-750.0</v>
       </c>
       <c r="D72" s="36">
@@ -2976,15 +2976,15 @@
       </c>
       <c r="M72" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="28">
+      <c r="B73" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C73" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C73" s="28">
         <v>-750.0</v>
       </c>
       <c r="D73" s="34">
@@ -2993,15 +2993,15 @@
       </c>
       <c r="M73" s="28">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="21">
+      <c r="B74" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C74" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C74" s="21">
         <v>-750.0</v>
       </c>
       <c r="D74" s="36">
@@ -3010,945 +3010,944 @@
       </c>
       <c r="M74" s="21">
         <f t="shared" si="6"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="75">
-      <c r="B75" s="28">
+      <c r="B75" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C75" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C75" s="28">
         <v>-750.0</v>
       </c>
       <c r="D75" s="34">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
-      <c r="M75" s="28">
+      <c r="M75" s="12">
         <v>-750.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="21">
+      <c r="B76" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C76" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C76" s="21">
         <v>-750.0</v>
       </c>
       <c r="D76" s="36">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
-      <c r="M76" s="35">
+      <c r="M76" s="21">
         <f t="shared" ref="M76:M146" si="8">M75</f>
         <v>-750</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="28">
+      <c r="B77" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C77" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C77" s="28">
         <v>-750.0</v>
       </c>
       <c r="D77" s="34">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
-      <c r="M77" s="33">
+      <c r="M77" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="21">
+      <c r="B78" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C78" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C78" s="21">
         <v>-750.0</v>
       </c>
       <c r="D78" s="36">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
-      <c r="M78" s="35">
+      <c r="M78" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="28">
+      <c r="B79" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C79" s="33">
+        <v>-1500</v>
+      </c>
+      <c r="C79" s="28">
         <v>-750.0</v>
       </c>
       <c r="D79" s="34">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
-      <c r="M79" s="33">
+      <c r="M79" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="21">
+      <c r="B80" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
-      </c>
-      <c r="C80" s="35">
+        <v>-1500</v>
+      </c>
+      <c r="C80" s="21">
         <v>-750.0</v>
       </c>
       <c r="D80" s="36">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
-      <c r="M80" s="35">
+      <c r="M80" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="81">
-      <c r="D81" s="28">
+      <c r="D81" s="12">
         <f>D5</f>
-        <v>2065804.64</v>
-      </c>
-      <c r="M81" s="33">
+        <v>3208339.62</v>
+      </c>
+      <c r="M81" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="82">
-      <c r="M82" s="35">
+      <c r="M82" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="83">
-      <c r="M83" s="33">
+      <c r="M83" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="84">
-      <c r="M84" s="35">
+      <c r="M84" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="85">
-      <c r="M85" s="33">
+      <c r="M85" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="86">
-      <c r="M86" s="35">
+      <c r="M86" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="87">
-      <c r="M87" s="33">
+      <c r="M87" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="88">
-      <c r="M88" s="35">
+      <c r="M88" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="89">
-      <c r="M89" s="33">
+      <c r="M89" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="90">
-      <c r="M90" s="35">
+      <c r="M90" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="91">
-      <c r="M91" s="33">
+      <c r="M91" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="92">
-      <c r="M92" s="35">
+      <c r="M92" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="93">
-      <c r="M93" s="33">
+      <c r="M93" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="94">
-      <c r="M94" s="35">
+      <c r="M94" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="95">
-      <c r="M95" s="33">
+      <c r="M95" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="96">
-      <c r="M96" s="35">
+      <c r="M96" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="97">
-      <c r="M97" s="33">
+      <c r="M97" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="98">
-      <c r="M98" s="35">
+      <c r="M98" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="99">
-      <c r="M99" s="33">
+      <c r="M99" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="100">
-      <c r="M100" s="35">
+      <c r="M100" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="101">
-      <c r="M101" s="33">
+      <c r="M101" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="102">
-      <c r="M102" s="35">
+      <c r="M102" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="103">
-      <c r="M103" s="33">
+      <c r="M103" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="104">
-      <c r="M104" s="35">
+      <c r="M104" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="105">
-      <c r="M105" s="33">
+      <c r="M105" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="106">
-      <c r="M106" s="35">
+      <c r="M106" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="107">
-      <c r="M107" s="33">
+      <c r="M107" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="108">
-      <c r="M108" s="35">
+      <c r="M108" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="109">
-      <c r="M109" s="33">
+      <c r="M109" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="110">
-      <c r="M110" s="35">
+      <c r="M110" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="111">
-      <c r="M111" s="33">
+      <c r="M111" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="112">
-      <c r="M112" s="35">
+      <c r="M112" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="113">
-      <c r="M113" s="33">
+      <c r="M113" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="114">
-      <c r="M114" s="35">
+      <c r="M114" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="115">
-      <c r="M115" s="33">
+      <c r="M115" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="116">
-      <c r="M116" s="35">
+      <c r="M116" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="117">
-      <c r="M117" s="33">
+      <c r="M117" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="118">
-      <c r="M118" s="35">
+      <c r="M118" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="119">
-      <c r="M119" s="33">
+      <c r="M119" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="120">
-      <c r="M120" s="35">
+      <c r="M120" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="121">
-      <c r="M121" s="33">
+      <c r="M121" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="122">
-      <c r="M122" s="35">
+      <c r="M122" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="123">
-      <c r="M123" s="33">
+      <c r="M123" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="124">
-      <c r="M124" s="35">
+      <c r="M124" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="125">
-      <c r="M125" s="33">
+      <c r="M125" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="126">
-      <c r="M126" s="35">
+      <c r="M126" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="127">
-      <c r="M127" s="33">
+      <c r="M127" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="128">
-      <c r="M128" s="35">
+      <c r="M128" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="129">
-      <c r="M129" s="33">
+      <c r="M129" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="130">
-      <c r="M130" s="35">
+      <c r="M130" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="131">
-      <c r="M131" s="33">
+      <c r="M131" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="132">
-      <c r="M132" s="35">
+      <c r="M132" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="133">
-      <c r="M133" s="33">
+      <c r="M133" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="134">
-      <c r="M134" s="35">
+      <c r="M134" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="135">
-      <c r="M135" s="33">
+      <c r="M135" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="136">
-      <c r="M136" s="35">
+      <c r="M136" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="137">
-      <c r="M137" s="33">
+      <c r="M137" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="138">
-      <c r="M138" s="35">
+      <c r="M138" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="139">
-      <c r="M139" s="33">
+      <c r="M139" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="140">
-      <c r="M140" s="35">
+      <c r="M140" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="141">
-      <c r="M141" s="33">
+      <c r="M141" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="142">
-      <c r="M142" s="35">
+      <c r="M142" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="143">
-      <c r="M143" s="33">
+      <c r="M143" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="144">
-      <c r="M144" s="35">
+      <c r="M144" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="145">
-      <c r="M145" s="33">
+      <c r="M145" s="28">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="146">
-      <c r="M146" s="35">
+      <c r="M146" s="21">
         <f t="shared" si="8"/>
         <v>-750</v>
       </c>
     </row>
     <row r="147">
-      <c r="M147" s="33">
+      <c r="M147" s="28">
         <v>-750.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="M148" s="35">
+      <c r="M148" s="21">
         <f t="shared" ref="M148:M218" si="9">M147</f>
         <v>-750</v>
       </c>
     </row>
     <row r="149">
-      <c r="M149" s="33">
+      <c r="M149" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="150">
-      <c r="M150" s="35">
+      <c r="M150" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="151">
-      <c r="M151" s="33">
+      <c r="M151" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="152">
-      <c r="M152" s="35">
+      <c r="M152" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="153">
-      <c r="M153" s="33">
+      <c r="M153" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="154">
-      <c r="M154" s="35">
+      <c r="M154" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="155">
-      <c r="M155" s="33">
+      <c r="M155" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="156">
-      <c r="M156" s="35">
+      <c r="M156" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="157">
-      <c r="M157" s="33">
+      <c r="M157" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="158">
-      <c r="M158" s="35">
+      <c r="M158" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="159">
-      <c r="M159" s="33">
+      <c r="M159" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="160">
-      <c r="M160" s="35">
+      <c r="M160" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="161">
-      <c r="M161" s="33">
+      <c r="M161" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="162">
-      <c r="M162" s="35">
+      <c r="M162" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="163">
-      <c r="M163" s="33">
+      <c r="M163" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="164">
-      <c r="M164" s="35">
+      <c r="M164" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="165">
-      <c r="M165" s="33">
+      <c r="M165" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="166">
-      <c r="M166" s="35">
+      <c r="M166" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="167">
-      <c r="M167" s="33">
+      <c r="M167" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="168">
-      <c r="M168" s="35">
+      <c r="M168" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="169">
-      <c r="M169" s="33">
+      <c r="M169" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="170">
-      <c r="M170" s="35">
+      <c r="M170" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="171">
-      <c r="M171" s="33">
+      <c r="M171" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="172">
-      <c r="M172" s="35">
+      <c r="M172" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="173">
-      <c r="M173" s="33">
+      <c r="M173" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="174">
-      <c r="M174" s="35">
+      <c r="M174" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="175">
-      <c r="M175" s="33">
+      <c r="M175" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="176">
-      <c r="M176" s="35">
+      <c r="M176" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="177">
-      <c r="M177" s="33">
+      <c r="M177" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="178">
-      <c r="M178" s="35">
+      <c r="M178" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="179">
-      <c r="M179" s="33">
+      <c r="M179" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="180">
-      <c r="M180" s="35">
+      <c r="M180" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="181">
-      <c r="M181" s="33">
+      <c r="M181" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="182">
-      <c r="M182" s="35">
+      <c r="M182" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="183">
-      <c r="M183" s="33">
+      <c r="M183" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="184">
-      <c r="M184" s="35">
+      <c r="M184" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="185">
-      <c r="M185" s="33">
+      <c r="M185" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="186">
-      <c r="M186" s="35">
+      <c r="M186" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="187">
-      <c r="M187" s="33">
+      <c r="M187" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="188">
-      <c r="M188" s="35">
+      <c r="M188" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="189">
-      <c r="M189" s="33">
+      <c r="M189" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="190">
-      <c r="M190" s="35">
+      <c r="M190" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="191">
-      <c r="M191" s="33">
+      <c r="M191" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="192">
-      <c r="M192" s="35">
+      <c r="M192" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="193">
-      <c r="M193" s="33">
+      <c r="M193" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="194">
-      <c r="M194" s="35">
+      <c r="M194" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="195">
-      <c r="M195" s="33">
+      <c r="M195" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="196">
-      <c r="M196" s="35">
+      <c r="M196" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="197">
-      <c r="M197" s="33">
+      <c r="M197" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="198">
-      <c r="M198" s="35">
+      <c r="M198" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="199">
-      <c r="M199" s="33">
+      <c r="M199" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="200">
-      <c r="M200" s="35">
+      <c r="M200" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="201">
-      <c r="M201" s="33">
+      <c r="M201" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="202">
-      <c r="M202" s="35">
+      <c r="M202" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="203">
-      <c r="M203" s="33">
+      <c r="M203" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="204">
-      <c r="M204" s="35">
+      <c r="M204" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="205">
-      <c r="M205" s="33">
+      <c r="M205" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="206">
-      <c r="M206" s="35">
+      <c r="M206" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="207">
-      <c r="M207" s="33">
+      <c r="M207" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="208">
-      <c r="M208" s="35">
+      <c r="M208" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="209">
-      <c r="M209" s="33">
+      <c r="M209" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="210">
-      <c r="M210" s="35">
+      <c r="M210" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="211">
-      <c r="M211" s="33">
+      <c r="M211" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="212">
-      <c r="M212" s="35">
+      <c r="M212" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="213">
-      <c r="M213" s="33">
+      <c r="M213" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="214">
-      <c r="M214" s="35">
+      <c r="M214" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="215">
-      <c r="M215" s="33">
+      <c r="M215" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="216">
-      <c r="M216" s="35">
+      <c r="M216" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="217">
-      <c r="M217" s="33">
+      <c r="M217" s="28">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="218">
-      <c r="M218" s="35">
+      <c r="M218" s="21">
         <f t="shared" si="9"/>
         <v>-750</v>
       </c>
     </row>
     <row r="219">
-      <c r="M219" s="33">
-        <f>D5</f>
-        <v>2065804.64</v>
+      <c r="M219" s="28">
+        <v>3208339.62</v>
       </c>
     </row>
   </sheetData>
@@ -3968,6 +3967,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="12" max="12" width="15.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="5" t="s">
@@ -4050,7 +4052,7 @@
       <c r="H3" s="44">
         <v>0.0</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="33">
         <v>0.0</v>
       </c>
       <c r="J3" s="45">
@@ -4060,7 +4062,7 @@
         <f>J3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="12">
         <f t="shared" ref="L3:L75" si="1">K3*C3</f>
         <v>0</v>
       </c>
@@ -4100,7 +4102,7 @@
       <c r="H4" s="44">
         <v>0.0</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="35">
         <f t="shared" ref="I4:I14" si="2">I3</f>
         <v>0</v>
       </c>
@@ -4111,7 +4113,7 @@
         <f t="shared" ref="K4:K39" si="3">J4+K3</f>
         <v>0</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4152,7 +4154,7 @@
       <c r="H5" s="44">
         <v>0.0</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4163,7 +4165,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4204,7 +4206,7 @@
       <c r="H6" s="44">
         <v>0.0</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4215,7 +4217,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4256,7 +4258,7 @@
       <c r="H7" s="44">
         <v>0.0</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4267,7 +4269,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4308,7 +4310,7 @@
       <c r="H8" s="44">
         <v>0.0</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4319,7 +4321,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4360,7 +4362,7 @@
       <c r="H9" s="44">
         <v>0.0</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4372,7 +4374,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4413,7 +4415,7 @@
       <c r="H10" s="44">
         <v>0.0</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4425,7 +4427,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4466,7 +4468,7 @@
       <c r="H11" s="44">
         <v>0.0</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4478,7 +4480,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4519,7 +4521,7 @@
       <c r="H12" s="44">
         <v>1.0</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4531,7 +4533,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4572,7 +4574,7 @@
       <c r="H13" s="44">
         <v>0.5</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4584,7 +4586,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4626,7 +4628,7 @@
       <c r="H14" s="44">
         <v>0.3333</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4638,7 +4640,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4680,20 +4682,20 @@
       <c r="H15" s="44">
         <v>1.0</v>
       </c>
-      <c r="I15" s="12">
-        <v>-750.0</v>
+      <c r="I15" s="33">
+        <v>-1500.0</v>
       </c>
       <c r="J15" s="23">
         <f t="shared" ref="J15:J19" si="6">ROUNDDOWN(-I15/C15)</f>
-        <v>9375</v>
+        <v>18750</v>
       </c>
       <c r="K15" s="46">
         <f t="shared" si="3"/>
-        <v>9375</v>
-      </c>
-      <c r="L15" s="28">
-        <f t="shared" si="1"/>
-        <v>750</v>
+        <v>18750</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
       <c r="M15" s="46">
         <f t="shared" si="4"/>
@@ -4733,21 +4735,21 @@
       <c r="H16" s="44">
         <v>0.5</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="35">
         <f t="shared" ref="I16:I74" si="7">I15</f>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="6"/>
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="K16" s="50">
         <f t="shared" si="3"/>
-        <v>15625</v>
-      </c>
-      <c r="L16" s="21">
-        <f t="shared" si="1"/>
-        <v>1875</v>
+        <v>31250</v>
+      </c>
+      <c r="L16" s="35">
+        <f t="shared" si="1"/>
+        <v>3750</v>
       </c>
       <c r="M16" s="50">
         <f t="shared" si="4"/>
@@ -4786,21 +4788,21 @@
       <c r="H17" s="44">
         <v>0.4167</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J17" s="23">
         <f t="shared" si="6"/>
-        <v>4411</v>
+        <v>8823</v>
       </c>
       <c r="K17" s="46">
         <f t="shared" si="3"/>
-        <v>20036</v>
-      </c>
-      <c r="L17" s="28">
-        <f t="shared" si="1"/>
-        <v>3406.12</v>
+        <v>40073</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="1"/>
+        <v>6812.41</v>
       </c>
       <c r="M17" s="46">
         <f t="shared" si="4"/>
@@ -4830,21 +4832,21 @@
       <c r="H18" s="44">
         <v>0.0</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J18" s="23">
         <f t="shared" si="6"/>
-        <v>4411</v>
+        <v>8823</v>
       </c>
       <c r="K18" s="50">
         <f t="shared" si="3"/>
-        <v>24447</v>
-      </c>
-      <c r="L18" s="21">
-        <f t="shared" si="1"/>
-        <v>4155.99</v>
+        <v>48896</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="1"/>
+        <v>8312.32</v>
       </c>
       <c r="M18" s="50">
         <f t="shared" si="4"/>
@@ -4874,21 +4876,21 @@
       <c r="H19" s="44">
         <v>0.2941</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J19" s="23">
         <f t="shared" si="6"/>
-        <v>3409</v>
+        <v>6818</v>
       </c>
       <c r="K19" s="46">
         <f t="shared" si="3"/>
-        <v>27856</v>
-      </c>
-      <c r="L19" s="28">
-        <f t="shared" si="1"/>
-        <v>6128.32</v>
+        <v>55714</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="1"/>
+        <v>12257.08</v>
       </c>
       <c r="M19" s="46">
         <f t="shared" si="4"/>
@@ -4918,21 +4920,21 @@
       <c r="H20" s="44">
         <v>0.7273</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J20" s="23">
         <f>ROUNDDOWN((-I20+Q5*K19)/C20) </f>
-        <v>1973</v>
+        <v>3947</v>
       </c>
       <c r="K20" s="50">
         <f t="shared" si="3"/>
-        <v>29829</v>
-      </c>
-      <c r="L20" s="21">
-        <f t="shared" si="1"/>
-        <v>11335.02</v>
+        <v>59661</v>
+      </c>
+      <c r="L20" s="35">
+        <f t="shared" si="1"/>
+        <v>22671.18</v>
       </c>
       <c r="M20" s="50">
         <f t="shared" si="4"/>
@@ -4969,21 +4971,21 @@
       <c r="H21" s="44">
         <v>0.2368</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J21" s="23">
         <f t="shared" ref="J21:J28" si="8">ROUNDDOWN(-I21/C21)</f>
-        <v>1595</v>
+        <v>3191</v>
       </c>
       <c r="K21" s="46">
         <f t="shared" si="3"/>
-        <v>31424</v>
-      </c>
-      <c r="L21" s="28">
-        <f t="shared" si="1"/>
-        <v>14769.28</v>
+        <v>62852</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="1"/>
+        <v>29540.44</v>
       </c>
       <c r="M21" s="46">
         <f t="shared" si="4"/>
@@ -5023,21 +5025,21 @@
       <c r="H22" s="44">
         <v>0.1702</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J22" s="23">
         <f t="shared" si="8"/>
-        <v>1363</v>
+        <v>2727</v>
       </c>
       <c r="K22" s="50">
         <f t="shared" si="3"/>
-        <v>32787</v>
-      </c>
-      <c r="L22" s="21">
-        <f t="shared" si="1"/>
-        <v>18032.85</v>
+        <v>65579</v>
+      </c>
+      <c r="L22" s="35">
+        <f t="shared" si="1"/>
+        <v>36068.45</v>
       </c>
       <c r="M22" s="50">
         <f t="shared" si="4"/>
@@ -5048,11 +5050,11 @@
       </c>
       <c r="P22" s="55">
         <f>(1+Q22)^(12)-1</f>
-        <v>0.1564232829</v>
+        <v>0.1564820433</v>
       </c>
       <c r="Q22" s="56">
         <f>IRR(I3:I75, 0.02)</f>
-        <v>0.01218462373</v>
+        <v>0.01218890957</v>
       </c>
       <c r="S22" s="57"/>
     </row>
@@ -5078,21 +5080,21 @@
       <c r="H23" s="44">
         <v>-0.1091</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J23" s="23">
         <f t="shared" si="8"/>
-        <v>1530</v>
+        <v>3061</v>
       </c>
       <c r="K23" s="46">
         <f t="shared" si="3"/>
-        <v>34317</v>
-      </c>
-      <c r="L23" s="28">
-        <f t="shared" si="1"/>
-        <v>16815.33</v>
+        <v>68640</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="1"/>
+        <v>33633.6</v>
       </c>
       <c r="M23" s="46">
         <f t="shared" si="4"/>
@@ -5103,7 +5105,7 @@
       </c>
       <c r="P23" s="58">
         <f t="array" ref="P23">NPV(Q21,I15:I75)</f>
-        <v>12081.36669</v>
+        <v>24177.73165</v>
       </c>
       <c r="Q23" s="7"/>
     </row>
@@ -5129,21 +5131,21 @@
       <c r="H24" s="44">
         <v>-0.0612</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J24" s="23">
         <f t="shared" si="8"/>
-        <v>1630</v>
+        <v>3260</v>
       </c>
       <c r="K24" s="50">
         <f t="shared" si="3"/>
-        <v>35947</v>
-      </c>
-      <c r="L24" s="21">
-        <f t="shared" si="1"/>
-        <v>16535.62</v>
+        <v>71900</v>
+      </c>
+      <c r="L24" s="35">
+        <f t="shared" si="1"/>
+        <v>33074</v>
       </c>
       <c r="M24" s="50">
         <f t="shared" si="4"/>
@@ -5172,21 +5174,21 @@
       <c r="H25" s="44">
         <v>0.0217</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J25" s="23">
         <f t="shared" si="8"/>
-        <v>1595</v>
+        <v>3191</v>
       </c>
       <c r="K25" s="46">
         <f t="shared" si="3"/>
-        <v>37542</v>
-      </c>
-      <c r="L25" s="28">
-        <f t="shared" si="1"/>
-        <v>17644.74</v>
+        <v>75091</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="1"/>
+        <v>35292.77</v>
       </c>
       <c r="M25" s="46">
         <f t="shared" si="4"/>
@@ -5220,21 +5222,21 @@
       <c r="H26" s="44">
         <v>-0.1064</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J26" s="23">
         <f t="shared" si="8"/>
-        <v>1785</v>
+        <v>3571</v>
       </c>
       <c r="K26" s="50">
         <f t="shared" si="3"/>
-        <v>39327</v>
-      </c>
-      <c r="L26" s="21">
-        <f t="shared" si="1"/>
-        <v>16517.34</v>
+        <v>78662</v>
+      </c>
+      <c r="L26" s="35">
+        <f t="shared" si="1"/>
+        <v>33038.04</v>
       </c>
       <c r="M26" s="50">
         <f t="shared" si="4"/>
@@ -5266,21 +5268,21 @@
       <c r="H27" s="44">
         <v>0.0</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J27" s="23">
         <f t="shared" si="8"/>
-        <v>1785</v>
+        <v>3571</v>
       </c>
       <c r="K27" s="46">
         <f t="shared" si="3"/>
-        <v>41112</v>
-      </c>
-      <c r="L27" s="28">
-        <f t="shared" si="1"/>
-        <v>17267.04</v>
+        <v>82233</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="1"/>
+        <v>34537.86</v>
       </c>
       <c r="M27" s="46">
         <f t="shared" si="4"/>
@@ -5317,21 +5319,21 @@
       <c r="H28" s="44">
         <v>-0.119</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J28" s="23">
         <f t="shared" si="8"/>
-        <v>2027</v>
+        <v>4054</v>
       </c>
       <c r="K28" s="50">
         <f t="shared" si="3"/>
-        <v>43139</v>
-      </c>
-      <c r="L28" s="21">
-        <f t="shared" si="1"/>
-        <v>15961.43</v>
+        <v>86287</v>
+      </c>
+      <c r="L28" s="35">
+        <f t="shared" si="1"/>
+        <v>31926.19</v>
       </c>
       <c r="M28" s="50">
         <f t="shared" si="4"/>
@@ -5368,21 +5370,21 @@
       <c r="H29" s="44">
         <v>-0.0541</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J29" s="23">
         <f>ROUNDDOWN((-I29/C29)*365%)</f>
-        <v>7821</v>
+        <v>15642</v>
       </c>
       <c r="K29" s="46">
         <f t="shared" si="3"/>
-        <v>50960</v>
-      </c>
-      <c r="L29" s="28">
-        <f t="shared" si="1"/>
-        <v>17836</v>
+        <v>101929</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="1"/>
+        <v>35675.15</v>
       </c>
       <c r="M29" s="46">
         <f t="shared" si="4"/>
@@ -5419,21 +5421,21 @@
       <c r="H30" s="44">
         <v>0.2</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J30" s="23">
         <f>ROUNDDOWN((-I30 + Q8*K29)/C30)</f>
-        <v>1829</v>
+        <v>3659</v>
       </c>
       <c r="K30" s="50">
         <f t="shared" si="3"/>
-        <v>52789</v>
-      </c>
-      <c r="L30" s="21">
-        <f t="shared" si="1"/>
-        <v>22171.38</v>
+        <v>105588</v>
+      </c>
+      <c r="L30" s="35">
+        <f t="shared" si="1"/>
+        <v>44346.96</v>
       </c>
       <c r="M30" s="50">
         <f t="shared" si="4"/>
@@ -5470,21 +5472,21 @@
       <c r="H31" s="44">
         <v>-0.0238</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J31" s="23">
         <f t="shared" ref="J31:J42" si="10">ROUNDDOWN(-I31/C31)</f>
-        <v>1829</v>
+        <v>3658</v>
       </c>
       <c r="K31" s="46">
         <f t="shared" si="3"/>
-        <v>54618</v>
-      </c>
-      <c r="L31" s="28">
-        <f t="shared" si="1"/>
-        <v>22393.38</v>
+        <v>109246</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="1"/>
+        <v>44790.86</v>
       </c>
       <c r="M31" s="46">
         <f t="shared" si="4"/>
@@ -5513,21 +5515,21 @@
       <c r="H32" s="44">
         <v>-0.1463</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J32" s="23">
         <f t="shared" si="10"/>
-        <v>2142</v>
+        <v>4285</v>
       </c>
       <c r="K32" s="50">
         <f t="shared" si="3"/>
-        <v>56760</v>
-      </c>
-      <c r="L32" s="21">
-        <f t="shared" si="1"/>
-        <v>19866</v>
+        <v>113531</v>
+      </c>
+      <c r="L32" s="35">
+        <f t="shared" si="1"/>
+        <v>39735.85</v>
       </c>
       <c r="M32" s="50">
         <f t="shared" si="4"/>
@@ -5556,21 +5558,21 @@
       <c r="H33" s="44">
         <v>0.1143</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J33" s="23">
         <f t="shared" si="10"/>
-        <v>1923</v>
+        <v>3846</v>
       </c>
       <c r="K33" s="46">
         <f t="shared" si="3"/>
-        <v>58683</v>
-      </c>
-      <c r="L33" s="28">
-        <f t="shared" si="1"/>
-        <v>22886.37</v>
+        <v>117377</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="1"/>
+        <v>45777.03</v>
       </c>
       <c r="M33" s="46">
         <f t="shared" si="4"/>
@@ -5599,21 +5601,21 @@
       <c r="H34" s="44">
         <v>0.0769</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J34" s="23">
         <f t="shared" si="10"/>
-        <v>1785</v>
+        <v>3571</v>
       </c>
       <c r="K34" s="50">
         <f t="shared" si="3"/>
-        <v>60468</v>
-      </c>
-      <c r="L34" s="21">
-        <f t="shared" si="1"/>
-        <v>25396.56</v>
+        <v>120948</v>
+      </c>
+      <c r="L34" s="35">
+        <f t="shared" si="1"/>
+        <v>50798.16</v>
       </c>
       <c r="M34" s="50">
         <f t="shared" si="4"/>
@@ -5642,21 +5644,21 @@
       <c r="H35" s="44">
         <v>0.0</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J35" s="23">
         <f t="shared" si="10"/>
-        <v>1785</v>
+        <v>3571</v>
       </c>
       <c r="K35" s="46">
         <f t="shared" si="3"/>
-        <v>62253</v>
-      </c>
-      <c r="L35" s="28">
-        <f t="shared" si="1"/>
-        <v>26146.26</v>
+        <v>124519</v>
+      </c>
+      <c r="L35" s="12">
+        <f t="shared" si="1"/>
+        <v>52297.98</v>
       </c>
       <c r="M35" s="46">
         <f t="shared" si="4"/>
@@ -5685,21 +5687,21 @@
       <c r="H36" s="44">
         <v>-0.0238</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J36" s="23">
         <f t="shared" si="10"/>
-        <v>1829</v>
+        <v>3658</v>
       </c>
       <c r="K36" s="50">
         <f t="shared" si="3"/>
-        <v>64082</v>
-      </c>
-      <c r="L36" s="21">
-        <f t="shared" si="1"/>
-        <v>26273.62</v>
+        <v>128177</v>
+      </c>
+      <c r="L36" s="35">
+        <f t="shared" si="1"/>
+        <v>52552.57</v>
       </c>
       <c r="M36" s="50">
         <f t="shared" si="4"/>
@@ -5728,21 +5730,21 @@
       <c r="H37" s="44">
         <v>0.0244</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J37" s="23">
         <f t="shared" si="10"/>
-        <v>1785</v>
+        <v>3571</v>
       </c>
       <c r="K37" s="46">
         <f t="shared" si="3"/>
-        <v>65867</v>
-      </c>
-      <c r="L37" s="28">
-        <f t="shared" si="1"/>
-        <v>27664.14</v>
+        <v>131748</v>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" si="1"/>
+        <v>55334.16</v>
       </c>
       <c r="M37" s="46">
         <f t="shared" si="4"/>
@@ -5771,21 +5773,21 @@
       <c r="H38" s="44">
         <v>0.0</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J38" s="23">
         <f t="shared" si="10"/>
-        <v>1785</v>
+        <v>3571</v>
       </c>
       <c r="K38" s="50">
         <f t="shared" si="3"/>
-        <v>67652</v>
-      </c>
-      <c r="L38" s="21">
-        <f t="shared" si="1"/>
-        <v>28413.84</v>
+        <v>135319</v>
+      </c>
+      <c r="L38" s="35">
+        <f t="shared" si="1"/>
+        <v>56833.98</v>
       </c>
       <c r="M38" s="50">
         <f t="shared" si="4"/>
@@ -5814,21 +5816,21 @@
       <c r="H39" s="44">
         <v>0.1429</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J39" s="23">
         <f t="shared" si="10"/>
-        <v>1562</v>
+        <v>3125</v>
       </c>
       <c r="K39" s="46">
         <f t="shared" si="3"/>
-        <v>69214</v>
-      </c>
-      <c r="L39" s="28">
-        <f t="shared" si="1"/>
-        <v>33222.72</v>
+        <v>138444</v>
+      </c>
+      <c r="L39" s="12">
+        <f t="shared" si="1"/>
+        <v>66453.12</v>
       </c>
       <c r="M39" s="46">
         <f t="shared" si="4"/>
@@ -5857,21 +5859,21 @@
       <c r="H40" s="44">
         <v>0.0208</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J40" s="23">
         <f t="shared" si="10"/>
-        <v>1530</v>
+        <v>3061</v>
       </c>
       <c r="K40" s="50">
         <f>ROUNDDOWN((J40+K39)*(1+1.98%))</f>
-        <v>72144</v>
-      </c>
-      <c r="L40" s="21">
-        <f t="shared" si="1"/>
-        <v>35350.56</v>
+        <v>144306</v>
+      </c>
+      <c r="L40" s="35">
+        <f t="shared" si="1"/>
+        <v>70709.94</v>
       </c>
       <c r="M40" s="50">
         <f t="shared" si="4"/>
@@ -5900,21 +5902,21 @@
       <c r="H41" s="44">
         <v>0.102</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J41" s="23">
         <f t="shared" si="10"/>
-        <v>1388</v>
+        <v>2777</v>
       </c>
       <c r="K41" s="46">
         <f t="shared" ref="K41:K75" si="11">J41+K40</f>
-        <v>73532</v>
-      </c>
-      <c r="L41" s="28">
-        <f t="shared" si="1"/>
-        <v>39707.28</v>
+        <v>147083</v>
+      </c>
+      <c r="L41" s="12">
+        <f t="shared" si="1"/>
+        <v>79424.82</v>
       </c>
       <c r="M41" s="46">
         <f t="shared" si="4"/>
@@ -5943,21 +5945,21 @@
       <c r="H42" s="44">
         <v>-0.0926</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J42" s="23">
         <f t="shared" si="10"/>
-        <v>1530</v>
+        <v>3061</v>
       </c>
       <c r="K42" s="50">
         <f t="shared" si="11"/>
-        <v>75062</v>
-      </c>
-      <c r="L42" s="21">
-        <f t="shared" si="1"/>
-        <v>36780.38</v>
+        <v>150144</v>
+      </c>
+      <c r="L42" s="35">
+        <f t="shared" si="1"/>
+        <v>73570.56</v>
       </c>
       <c r="M42" s="50">
         <f t="shared" si="4"/>
@@ -5986,21 +5988,21 @@
       <c r="H43" s="44">
         <v>0.0612</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I43" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J43" s="23">
         <f>ROUNDDOWN((-I43 + Q9*K42)/C43)</f>
-        <v>1586</v>
+        <v>3173</v>
       </c>
       <c r="K43" s="46">
         <f t="shared" si="11"/>
-        <v>76648</v>
-      </c>
-      <c r="L43" s="28">
-        <f t="shared" si="1"/>
-        <v>39856.96</v>
+        <v>153317</v>
+      </c>
+      <c r="L43" s="12">
+        <f t="shared" si="1"/>
+        <v>79724.84</v>
       </c>
       <c r="M43" s="46">
         <f t="shared" si="4"/>
@@ -6029,21 +6031,21 @@
       <c r="H44" s="44">
         <v>0.0192</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J44" s="23">
         <f t="shared" ref="J44:J55" si="12">ROUNDDOWN(-I44/C44)</f>
-        <v>1415</v>
+        <v>2830</v>
       </c>
       <c r="K44" s="50">
         <f t="shared" si="11"/>
-        <v>78063</v>
-      </c>
-      <c r="L44" s="21">
-        <f t="shared" si="1"/>
-        <v>41373.39</v>
+        <v>156147</v>
+      </c>
+      <c r="L44" s="35">
+        <f t="shared" si="1"/>
+        <v>82757.91</v>
       </c>
       <c r="M44" s="50">
         <f t="shared" si="4"/>
@@ -6072,21 +6074,21 @@
       <c r="H45" s="44">
         <v>0.0377</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J45" s="23">
         <f t="shared" si="12"/>
-        <v>1363</v>
+        <v>2727</v>
       </c>
       <c r="K45" s="46">
         <f t="shared" si="11"/>
-        <v>79426</v>
-      </c>
-      <c r="L45" s="28">
-        <f t="shared" si="1"/>
-        <v>43684.3</v>
+        <v>158874</v>
+      </c>
+      <c r="L45" s="12">
+        <f t="shared" si="1"/>
+        <v>87380.7</v>
       </c>
       <c r="M45" s="46">
         <f t="shared" si="4"/>
@@ -6115,21 +6117,21 @@
       <c r="H46" s="44">
         <v>0.0909</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J46" s="23">
         <f t="shared" si="12"/>
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="K46" s="50">
         <f t="shared" si="11"/>
-        <v>80676</v>
-      </c>
-      <c r="L46" s="21">
-        <f t="shared" si="1"/>
-        <v>48405.6</v>
+        <v>161374</v>
+      </c>
+      <c r="L46" s="35">
+        <f t="shared" si="1"/>
+        <v>96824.4</v>
       </c>
       <c r="M46" s="50">
         <f t="shared" si="4"/>
@@ -6158,21 +6160,21 @@
       <c r="H47" s="44">
         <v>0.0</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J47" s="23">
         <f t="shared" si="12"/>
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="K47" s="46">
         <f t="shared" si="11"/>
-        <v>81926</v>
-      </c>
-      <c r="L47" s="28">
-        <f t="shared" si="1"/>
-        <v>49155.6</v>
+        <v>163874</v>
+      </c>
+      <c r="L47" s="12">
+        <f t="shared" si="1"/>
+        <v>98324.4</v>
       </c>
       <c r="M47" s="46">
         <f t="shared" si="4"/>
@@ -6201,21 +6203,21 @@
       <c r="H48" s="44">
         <v>0.0667</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J48" s="23">
         <f t="shared" si="12"/>
-        <v>1171</v>
+        <v>2343</v>
       </c>
       <c r="K48" s="50">
         <f t="shared" si="11"/>
-        <v>83097</v>
-      </c>
-      <c r="L48" s="21">
-        <f t="shared" si="1"/>
-        <v>53182.08</v>
+        <v>166217</v>
+      </c>
+      <c r="L48" s="35">
+        <f t="shared" si="1"/>
+        <v>106378.88</v>
       </c>
       <c r="M48" s="50">
         <f t="shared" si="4"/>
@@ -6244,21 +6246,21 @@
       <c r="H49" s="44">
         <v>0.0313</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J49" s="23">
         <f t="shared" si="12"/>
-        <v>1136</v>
+        <v>2272</v>
       </c>
       <c r="K49" s="46">
         <f t="shared" si="11"/>
-        <v>84233</v>
-      </c>
-      <c r="L49" s="28">
-        <f t="shared" si="1"/>
-        <v>55593.78</v>
+        <v>168489</v>
+      </c>
+      <c r="L49" s="12">
+        <f t="shared" si="1"/>
+        <v>111202.74</v>
       </c>
       <c r="M49" s="46">
         <f t="shared" si="4"/>
@@ -6287,21 +6289,21 @@
       <c r="H50" s="44">
         <v>0.0606</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J50" s="23">
         <f t="shared" si="12"/>
-        <v>1071</v>
+        <v>2142</v>
       </c>
       <c r="K50" s="50">
         <f t="shared" si="11"/>
-        <v>85304</v>
-      </c>
-      <c r="L50" s="21">
-        <f t="shared" si="1"/>
-        <v>59712.8</v>
+        <v>170631</v>
+      </c>
+      <c r="L50" s="35">
+        <f t="shared" si="1"/>
+        <v>119441.7</v>
       </c>
       <c r="M50" s="50">
         <f t="shared" si="4"/>
@@ -6330,21 +6332,21 @@
       <c r="H51" s="44">
         <v>0.2286</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J51" s="23">
         <f t="shared" si="12"/>
-        <v>872</v>
+        <v>1744</v>
       </c>
       <c r="K51" s="46">
         <f t="shared" si="11"/>
-        <v>86176</v>
-      </c>
-      <c r="L51" s="28">
-        <f t="shared" si="1"/>
-        <v>74111.36</v>
+        <v>172375</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="1"/>
+        <v>148242.5</v>
       </c>
       <c r="M51" s="46">
         <f t="shared" si="4"/>
@@ -6373,21 +6375,21 @@
       <c r="H52" s="44">
         <v>-0.0349</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J52" s="23">
         <f t="shared" si="12"/>
-        <v>903</v>
+        <v>1807</v>
       </c>
       <c r="K52" s="50">
         <f t="shared" si="11"/>
-        <v>87079</v>
-      </c>
-      <c r="L52" s="21">
-        <f t="shared" si="1"/>
-        <v>72275.57</v>
+        <v>174182</v>
+      </c>
+      <c r="L52" s="35">
+        <f t="shared" si="1"/>
+        <v>144571.06</v>
       </c>
       <c r="M52" s="50">
         <f t="shared" si="4"/>
@@ -6416,21 +6418,21 @@
       <c r="H53" s="44">
         <v>0.0361</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="12"/>
-        <v>872</v>
+        <v>1744</v>
       </c>
       <c r="K53" s="46">
         <f t="shared" si="11"/>
-        <v>87951</v>
-      </c>
-      <c r="L53" s="28">
-        <f t="shared" si="1"/>
-        <v>75637.86</v>
+        <v>175926</v>
+      </c>
+      <c r="L53" s="12">
+        <f t="shared" si="1"/>
+        <v>151296.36</v>
       </c>
       <c r="M53" s="46">
         <f t="shared" si="4"/>
@@ -6459,21 +6461,21 @@
       <c r="H54" s="44">
         <v>0.1047</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J54" s="23">
         <f t="shared" si="12"/>
-        <v>789</v>
+        <v>1578</v>
       </c>
       <c r="K54" s="50">
         <f t="shared" si="11"/>
-        <v>88740</v>
-      </c>
-      <c r="L54" s="21">
-        <f t="shared" si="1"/>
-        <v>84303</v>
+        <v>177504</v>
+      </c>
+      <c r="L54" s="35">
+        <f t="shared" si="1"/>
+        <v>168628.8</v>
       </c>
       <c r="M54" s="50">
         <f t="shared" si="4"/>
@@ -6502,21 +6504,21 @@
       <c r="H55" s="44">
         <v>0.0105</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J55" s="23">
         <f t="shared" si="12"/>
-        <v>781</v>
+        <v>1562</v>
       </c>
       <c r="K55" s="46">
         <f t="shared" si="11"/>
-        <v>89521</v>
-      </c>
-      <c r="L55" s="28">
-        <f t="shared" si="1"/>
-        <v>85940.16</v>
+        <v>179066</v>
+      </c>
+      <c r="L55" s="12">
+        <f t="shared" si="1"/>
+        <v>171903.36</v>
       </c>
       <c r="M55" s="46">
         <f t="shared" si="4"/>
@@ -6545,21 +6547,21 @@
       <c r="H56" s="44">
         <v>0.1354</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J56" s="23">
         <f>ROUNDDOWN((-I56 + K55*Q10)/C56)</f>
-        <v>770</v>
+        <v>1540</v>
       </c>
       <c r="K56" s="50">
         <f t="shared" si="11"/>
-        <v>90291</v>
-      </c>
-      <c r="L56" s="21">
-        <f t="shared" si="1"/>
-        <v>98417.19</v>
+        <v>180606</v>
+      </c>
+      <c r="L56" s="35">
+        <f t="shared" si="1"/>
+        <v>196860.54</v>
       </c>
       <c r="M56" s="50">
         <f t="shared" si="4"/>
@@ -6588,21 +6590,21 @@
       <c r="H57" s="44">
         <v>0.1009</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I57" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J57" s="23">
         <f t="shared" ref="J57:J62" si="13">ROUNDDOWN(-I57/C57)</f>
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="K57" s="46">
         <f t="shared" si="11"/>
-        <v>90916</v>
-      </c>
-      <c r="L57" s="28">
-        <f t="shared" si="1"/>
-        <v>109099.2</v>
+        <v>181856</v>
+      </c>
+      <c r="L57" s="12">
+        <f t="shared" si="1"/>
+        <v>218227.2</v>
       </c>
       <c r="M57" s="46">
         <f t="shared" si="4"/>
@@ -6631,21 +6633,21 @@
       <c r="H58" s="44">
         <v>-0.2</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J58" s="23">
         <f t="shared" si="13"/>
-        <v>781</v>
+        <v>1562</v>
       </c>
       <c r="K58" s="50">
         <f t="shared" si="11"/>
-        <v>91697</v>
-      </c>
-      <c r="L58" s="21">
-        <f t="shared" si="1"/>
-        <v>88029.12</v>
+        <v>183418</v>
+      </c>
+      <c r="L58" s="35">
+        <f t="shared" si="1"/>
+        <v>176081.28</v>
       </c>
       <c r="M58" s="50">
         <f t="shared" si="4"/>
@@ -6674,21 +6676,21 @@
       <c r="H59" s="44">
         <v>0.25</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I59" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J59" s="23">
         <f t="shared" si="13"/>
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="K59" s="46">
         <f t="shared" si="11"/>
-        <v>92322</v>
-      </c>
-      <c r="L59" s="28">
-        <f t="shared" si="1"/>
-        <v>110786.4</v>
+        <v>184668</v>
+      </c>
+      <c r="L59" s="12">
+        <f t="shared" si="1"/>
+        <v>221601.6</v>
       </c>
       <c r="M59" s="46">
         <f t="shared" si="4"/>
@@ -6717,21 +6719,21 @@
       <c r="H60" s="44">
         <v>-0.275</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J60" s="23">
         <f t="shared" si="13"/>
-        <v>862</v>
+        <v>1724</v>
       </c>
       <c r="K60" s="50">
         <f t="shared" si="11"/>
-        <v>93184</v>
-      </c>
-      <c r="L60" s="21">
-        <f t="shared" si="1"/>
-        <v>81070.08</v>
+        <v>186392</v>
+      </c>
+      <c r="L60" s="35">
+        <f t="shared" si="1"/>
+        <v>162161.04</v>
       </c>
       <c r="M60" s="50">
         <f t="shared" si="4"/>
@@ -6760,21 +6762,21 @@
       <c r="H61" s="44">
         <v>0.2069</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J61" s="23">
         <f t="shared" si="13"/>
-        <v>714</v>
+        <v>1428</v>
       </c>
       <c r="K61" s="46">
         <f t="shared" si="11"/>
-        <v>93898</v>
-      </c>
-      <c r="L61" s="28">
-        <f t="shared" si="1"/>
-        <v>98592.9</v>
+        <v>187820</v>
+      </c>
+      <c r="L61" s="12">
+        <f t="shared" si="1"/>
+        <v>197211</v>
       </c>
       <c r="M61" s="46">
         <f t="shared" si="4"/>
@@ -6803,21 +6805,21 @@
       <c r="H62" s="44">
         <v>-0.0952</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J62" s="23">
         <f t="shared" si="13"/>
-        <v>789</v>
+        <v>1578</v>
       </c>
       <c r="K62" s="50">
         <f t="shared" si="11"/>
-        <v>94687</v>
-      </c>
-      <c r="L62" s="21">
-        <f t="shared" si="1"/>
-        <v>89952.65</v>
+        <v>189398</v>
+      </c>
+      <c r="L62" s="35">
+        <f t="shared" si="1"/>
+        <v>179928.1</v>
       </c>
       <c r="M62" s="50">
         <f t="shared" si="4"/>
@@ -6846,21 +6848,21 @@
       <c r="H63" s="44">
         <v>-0.0842</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J63" s="23">
         <f>ROUNDDOWN((-I63 + K62*Q11)/C63)</f>
-        <v>929</v>
+        <v>1858</v>
       </c>
       <c r="K63" s="46">
         <f t="shared" si="11"/>
-        <v>95616</v>
-      </c>
-      <c r="L63" s="28">
-        <f t="shared" si="1"/>
-        <v>83185.92</v>
+        <v>191256</v>
+      </c>
+      <c r="L63" s="12">
+        <f t="shared" si="1"/>
+        <v>166392.72</v>
       </c>
       <c r="M63" s="46">
         <f t="shared" si="4"/>
@@ -6889,21 +6891,21 @@
       <c r="H64" s="44">
         <v>0.092</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J64" s="23">
         <f t="shared" ref="J64:J66" si="14">ROUNDDOWN(-I64/C64)</f>
-        <v>789</v>
+        <v>1578</v>
       </c>
       <c r="K64" s="50">
         <f t="shared" si="11"/>
-        <v>96405</v>
-      </c>
-      <c r="L64" s="21">
-        <f t="shared" si="1"/>
-        <v>91584.75</v>
+        <v>192834</v>
+      </c>
+      <c r="L64" s="35">
+        <f t="shared" si="1"/>
+        <v>183192.3</v>
       </c>
       <c r="M64" s="50">
         <f t="shared" si="4"/>
@@ -6932,21 +6934,21 @@
       <c r="H65" s="44">
         <v>0.1474</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J65" s="23">
         <f t="shared" si="14"/>
-        <v>688</v>
+        <v>1376</v>
       </c>
       <c r="K65" s="46">
         <f t="shared" si="11"/>
-        <v>97093</v>
-      </c>
-      <c r="L65" s="28">
-        <f t="shared" si="1"/>
-        <v>105831.37</v>
+        <v>194210</v>
+      </c>
+      <c r="L65" s="12">
+        <f t="shared" si="1"/>
+        <v>211688.9</v>
       </c>
       <c r="M65" s="46">
         <f t="shared" si="4"/>
@@ -6975,21 +6977,21 @@
       <c r="H66" s="44">
         <v>0.0</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J66" s="23">
         <f t="shared" si="14"/>
-        <v>688</v>
+        <v>1376</v>
       </c>
       <c r="K66" s="50">
         <f t="shared" si="11"/>
-        <v>97781</v>
-      </c>
-      <c r="L66" s="21">
-        <f t="shared" si="1"/>
-        <v>106581.29</v>
+        <v>195586</v>
+      </c>
+      <c r="L66" s="35">
+        <f t="shared" si="1"/>
+        <v>213188.74</v>
       </c>
       <c r="M66" s="50">
         <f t="shared" si="4"/>
@@ -7018,21 +7020,21 @@
       <c r="H67" s="44">
         <v>-0.1651</v>
       </c>
-      <c r="I67" s="28">
+      <c r="I67" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J67" s="23">
         <f>ROUNDDOWN((-I67/C67)*(Q12+1))</f>
-        <v>1008</v>
+        <v>2017</v>
       </c>
       <c r="K67" s="46">
         <f t="shared" si="11"/>
-        <v>98789</v>
-      </c>
-      <c r="L67" s="28">
-        <f t="shared" si="1"/>
-        <v>89897.99</v>
+        <v>197603</v>
+      </c>
+      <c r="L67" s="12">
+        <f t="shared" si="1"/>
+        <v>179818.73</v>
       </c>
       <c r="M67" s="46">
         <f t="shared" si="4"/>
@@ -7061,21 +7063,21 @@
       <c r="H68" s="44">
         <v>-0.044</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J68" s="23">
         <f>ROUNDDOWN((-I68 +K67*Q13)/C68)</f>
-        <v>1030</v>
+        <v>2061</v>
       </c>
       <c r="K68" s="50">
         <f t="shared" si="11"/>
-        <v>99819</v>
-      </c>
-      <c r="L68" s="21">
-        <f t="shared" si="1"/>
-        <v>86842.53</v>
+        <v>199664</v>
+      </c>
+      <c r="L68" s="35">
+        <f t="shared" si="1"/>
+        <v>173707.68</v>
       </c>
       <c r="M68" s="50">
         <f t="shared" si="4"/>
@@ -7104,21 +7106,21 @@
       <c r="H69" s="44">
         <v>0.092</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J69" s="23">
         <f t="shared" ref="J69:J71" si="15">ROUNDDOWN(-I69/C69)</f>
-        <v>789</v>
+        <v>1578</v>
       </c>
       <c r="K69" s="46">
         <f t="shared" si="11"/>
-        <v>100608</v>
-      </c>
-      <c r="L69" s="28">
-        <f t="shared" si="1"/>
-        <v>95577.6</v>
+        <v>201242</v>
+      </c>
+      <c r="L69" s="12">
+        <f t="shared" si="1"/>
+        <v>191179.9</v>
       </c>
       <c r="M69" s="46">
         <f t="shared" si="4"/>
@@ -7147,21 +7149,21 @@
       <c r="H70" s="44">
         <v>-0.4421</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I70" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J70" s="23">
         <f t="shared" si="15"/>
-        <v>1415</v>
+        <v>2830</v>
       </c>
       <c r="K70" s="50">
         <f t="shared" si="11"/>
-        <v>102023</v>
-      </c>
-      <c r="L70" s="21">
-        <f t="shared" si="1"/>
-        <v>54072.19</v>
+        <v>204072</v>
+      </c>
+      <c r="L70" s="35">
+        <f t="shared" si="1"/>
+        <v>108158.16</v>
       </c>
       <c r="M70" s="50">
         <f t="shared" si="4"/>
@@ -7190,21 +7192,21 @@
       <c r="H71" s="44">
         <v>0.1698</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J71" s="23">
         <f t="shared" si="15"/>
-        <v>1209</v>
+        <v>2419</v>
       </c>
       <c r="K71" s="46">
         <f t="shared" si="11"/>
-        <v>103232</v>
-      </c>
-      <c r="L71" s="28">
-        <f t="shared" si="1"/>
-        <v>64003.84</v>
+        <v>206491</v>
+      </c>
+      <c r="L71" s="12">
+        <f t="shared" si="1"/>
+        <v>128024.42</v>
       </c>
       <c r="M71" s="46">
         <f t="shared" si="4"/>
@@ -7233,21 +7235,21 @@
       <c r="H72" s="44">
         <v>-0.0968</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I72" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J72" s="23">
         <f t="shared" ref="J72:J73" si="16">ROUNDDOWN((-I72 + K71*Q14)/C72)</f>
-        <v>1559</v>
+        <v>3119</v>
       </c>
       <c r="K72" s="50">
         <f t="shared" si="11"/>
-        <v>104791</v>
-      </c>
-      <c r="L72" s="21">
-        <f t="shared" si="1"/>
-        <v>58682.96</v>
+        <v>209610</v>
+      </c>
+      <c r="L72" s="35">
+        <f t="shared" si="1"/>
+        <v>117381.6</v>
       </c>
       <c r="M72" s="50">
         <f t="shared" si="4"/>
@@ -7276,21 +7278,21 @@
       <c r="H73" s="44">
         <v>0.3036</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="12">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J73" s="23">
         <f t="shared" si="16"/>
-        <v>1117</v>
+        <v>2235</v>
       </c>
       <c r="K73" s="46">
         <f t="shared" si="11"/>
-        <v>105908</v>
-      </c>
-      <c r="L73" s="28">
-        <f t="shared" si="1"/>
-        <v>77312.84</v>
+        <v>211845</v>
+      </c>
+      <c r="L73" s="12">
+        <f t="shared" si="1"/>
+        <v>154646.85</v>
       </c>
       <c r="M73" s="46">
         <f t="shared" si="4"/>
@@ -7319,21 +7321,21 @@
       <c r="H74" s="44">
         <v>-0.2466</v>
       </c>
-      <c r="I74" s="21">
+      <c r="I74" s="35">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1500</v>
       </c>
       <c r="J74" s="23">
         <f>ROUNDDOWN(-I74/C74)</f>
-        <v>1363</v>
+        <v>2727</v>
       </c>
       <c r="K74" s="50">
         <f t="shared" si="11"/>
-        <v>107271</v>
-      </c>
-      <c r="L74" s="21">
-        <f t="shared" si="1"/>
-        <v>58999.05</v>
+        <v>214572</v>
+      </c>
+      <c r="L74" s="35">
+        <f t="shared" si="1"/>
+        <v>118014.6</v>
       </c>
       <c r="M74" s="50">
         <f t="shared" si="4"/>
@@ -7362,21 +7364,21 @@
       <c r="H75" s="44">
         <v>0.1273</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I75" s="33">
         <f>L75</f>
-        <v>66549.56</v>
+        <v>133118.34</v>
       </c>
       <c r="J75" s="45">
         <f>ROUNDDOWN(K74*Q16)</f>
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="K75" s="46">
         <f t="shared" si="11"/>
-        <v>107338</v>
-      </c>
-      <c r="L75" s="28">
-        <f t="shared" si="1"/>
-        <v>66549.56</v>
+        <v>214707</v>
+      </c>
+      <c r="L75" s="12">
+        <f t="shared" si="1"/>
+        <v>133118.34</v>
       </c>
       <c r="M75" s="46">
         <f t="shared" si="4"/>
@@ -7489,7 +7491,7 @@
       <c r="H3" s="44">
         <v>0.1273</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="12">
         <v>-750.0</v>
       </c>
       <c r="J3" s="23">
@@ -7498,11 +7500,11 @@
       </c>
       <c r="K3" s="46">
         <f>'1993-1998 (Parte 5)'!K75 + J3</f>
-        <v>108547</v>
-      </c>
-      <c r="L3" s="28">
+        <v>215916</v>
+      </c>
+      <c r="L3" s="12">
         <f t="shared" ref="L3:L75" si="2">K3*C3</f>
-        <v>67299.14</v>
+        <v>133867.92</v>
       </c>
       <c r="M3" s="46">
         <v>1.0</v>
@@ -7541,7 +7543,7 @@
       <c r="H4" s="44">
         <v>0.0484</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="35">
         <f t="shared" ref="I4:I74" si="3">I3</f>
         <v>-750</v>
       </c>
@@ -7551,11 +7553,11 @@
       </c>
       <c r="K4" s="50">
         <f t="shared" ref="K4:K39" si="4">J4+K3</f>
-        <v>109700</v>
-      </c>
-      <c r="L4" s="21">
-        <f t="shared" si="2"/>
-        <v>71305</v>
+        <v>217069</v>
+      </c>
+      <c r="L4" s="35">
+        <f t="shared" si="2"/>
+        <v>141094.85</v>
       </c>
       <c r="M4" s="50">
         <f t="shared" ref="M4:M75" si="5">M3+1</f>
@@ -7594,7 +7596,7 @@
       <c r="H5" s="44">
         <v>0.4154</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -7604,11 +7606,11 @@
       </c>
       <c r="K5" s="46">
         <f t="shared" si="4"/>
-        <v>110515</v>
-      </c>
-      <c r="L5" s="28">
-        <f t="shared" si="2"/>
-        <v>101673.8</v>
+        <v>217884</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="2"/>
+        <v>200453.28</v>
       </c>
       <c r="M5" s="46">
         <f t="shared" si="5"/>
@@ -7647,7 +7649,7 @@
       <c r="H6" s="44">
         <v>0.0435</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -7657,11 +7659,11 @@
       </c>
       <c r="K6" s="50">
         <f t="shared" si="4"/>
-        <v>111296</v>
-      </c>
-      <c r="L6" s="21">
-        <f t="shared" si="2"/>
-        <v>106844.16</v>
+        <v>218665</v>
+      </c>
+      <c r="L6" s="35">
+        <f t="shared" si="2"/>
+        <v>209918.4</v>
       </c>
       <c r="M6" s="50">
         <f t="shared" si="5"/>
@@ -7700,7 +7702,7 @@
       <c r="H7" s="44">
         <v>-0.0729</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -7710,11 +7712,11 @@
       </c>
       <c r="K7" s="46">
         <f t="shared" si="4"/>
-        <v>112138</v>
-      </c>
-      <c r="L7" s="28">
-        <f t="shared" si="2"/>
-        <v>99802.82</v>
+        <v>219507</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="2"/>
+        <v>195361.23</v>
       </c>
       <c r="M7" s="46">
         <f t="shared" si="5"/>
@@ -7753,21 +7755,21 @@
       <c r="H8" s="44">
         <v>0.0</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
       <c r="J8" s="23">
         <f>ROUNDDOWN((-I8+Q3*K7)/C8)</f>
-        <v>975</v>
+        <v>1103</v>
       </c>
       <c r="K8" s="50">
         <f t="shared" si="4"/>
-        <v>113113</v>
-      </c>
-      <c r="L8" s="21">
-        <f t="shared" si="2"/>
-        <v>100670.57</v>
+        <v>220610</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>196342.9</v>
       </c>
       <c r="M8" s="50">
         <f t="shared" si="5"/>
@@ -7806,7 +7808,7 @@
       <c r="H9" s="44">
         <v>-0.1573</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -7816,11 +7818,11 @@
       </c>
       <c r="K9" s="46">
         <f t="shared" si="4"/>
-        <v>114113</v>
-      </c>
-      <c r="L9" s="28">
-        <f t="shared" si="2"/>
-        <v>85584.75</v>
+        <v>221610</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="2"/>
+        <v>166207.5</v>
       </c>
       <c r="M9" s="46">
         <f t="shared" si="5"/>
@@ -7860,7 +7862,7 @@
       <c r="H10" s="44">
         <v>-0.0533</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -7870,11 +7872,11 @@
       </c>
       <c r="K10" s="50">
         <f t="shared" si="4"/>
-        <v>115169</v>
-      </c>
-      <c r="L10" s="21">
-        <f t="shared" si="2"/>
-        <v>81769.99</v>
+        <v>222666</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="2"/>
+        <v>158092.86</v>
       </c>
       <c r="M10" s="50">
         <f t="shared" si="5"/>
@@ -7913,7 +7915,7 @@
       <c r="H11" s="44">
         <v>-0.0141</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -7923,11 +7925,11 @@
       </c>
       <c r="K11" s="46">
         <f t="shared" si="4"/>
-        <v>116240</v>
-      </c>
-      <c r="L11" s="28">
-        <f t="shared" si="2"/>
-        <v>81368</v>
+        <v>223737</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="2"/>
+        <v>156615.9</v>
       </c>
       <c r="M11" s="46">
         <f t="shared" si="5"/>
@@ -7967,7 +7969,7 @@
       <c r="H12" s="44">
         <v>-0.0429</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -7977,11 +7979,11 @@
       </c>
       <c r="K12" s="50">
         <f t="shared" si="4"/>
-        <v>117359</v>
-      </c>
-      <c r="L12" s="21">
-        <f t="shared" si="2"/>
-        <v>78630.53</v>
+        <v>224856</v>
+      </c>
+      <c r="L12" s="35">
+        <f t="shared" si="2"/>
+        <v>150653.52</v>
       </c>
       <c r="M12" s="50">
         <f t="shared" si="5"/>
@@ -8020,7 +8022,7 @@
       <c r="H13" s="44">
         <v>0.2985</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8030,11 +8032,11 @@
       </c>
       <c r="K13" s="46">
         <f t="shared" si="4"/>
-        <v>118221</v>
-      </c>
-      <c r="L13" s="28">
-        <f t="shared" si="2"/>
-        <v>102852.27</v>
+        <v>225718</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="2"/>
+        <v>196374.66</v>
       </c>
       <c r="M13" s="46">
         <f t="shared" si="5"/>
@@ -8073,7 +8075,7 @@
       <c r="H14" s="44">
         <v>0.1264</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8083,11 +8085,11 @@
       </c>
       <c r="K14" s="50">
         <f t="shared" si="4"/>
-        <v>118986</v>
-      </c>
-      <c r="L14" s="21">
-        <f t="shared" si="2"/>
-        <v>116606.28</v>
+        <v>226483</v>
+      </c>
+      <c r="L14" s="35">
+        <f t="shared" si="2"/>
+        <v>221953.34</v>
       </c>
       <c r="M14" s="50">
         <f t="shared" si="5"/>
@@ -8126,21 +8128,21 @@
       <c r="H15" s="44">
         <v>-0.2449</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
       <c r="J15" s="23">
         <f>ROUNDDOWN((-I15 + K14*Q4 )/C15)</f>
-        <v>1202</v>
+        <v>1373</v>
       </c>
       <c r="K15" s="46">
         <f t="shared" si="4"/>
-        <v>120188</v>
-      </c>
-      <c r="L15" s="28">
-        <f t="shared" si="2"/>
-        <v>88939.12</v>
+        <v>227856</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="2"/>
+        <v>168613.44</v>
       </c>
       <c r="M15" s="46">
         <f t="shared" si="5"/>
@@ -8179,7 +8181,7 @@
       <c r="H16" s="44">
         <v>-0.0541</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8189,11 +8191,11 @@
       </c>
       <c r="K16" s="50">
         <f t="shared" si="4"/>
-        <v>121259</v>
-      </c>
-      <c r="L16" s="21">
-        <f t="shared" si="2"/>
-        <v>84881.3</v>
+        <v>228927</v>
+      </c>
+      <c r="L16" s="35">
+        <f t="shared" si="2"/>
+        <v>160248.9</v>
       </c>
       <c r="M16" s="50">
         <f t="shared" si="5"/>
@@ -8223,7 +8225,7 @@
       <c r="H17" s="44">
         <v>0.0429</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8233,11 +8235,11 @@
       </c>
       <c r="K17" s="46">
         <f t="shared" si="4"/>
-        <v>122286</v>
-      </c>
-      <c r="L17" s="28">
-        <f t="shared" si="2"/>
-        <v>89268.78</v>
+        <v>229954</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="2"/>
+        <v>167866.42</v>
       </c>
       <c r="M17" s="46">
         <f t="shared" si="5"/>
@@ -8267,7 +8269,7 @@
       <c r="H18" s="44">
         <v>-0.0959</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8277,11 +8279,11 @@
       </c>
       <c r="K18" s="50">
         <f t="shared" si="4"/>
-        <v>123422</v>
-      </c>
-      <c r="L18" s="21">
-        <f t="shared" si="2"/>
-        <v>81458.52</v>
+        <v>231090</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="2"/>
+        <v>152519.4</v>
       </c>
       <c r="M18" s="50">
         <f t="shared" si="5"/>
@@ -8317,21 +8319,21 @@
       <c r="H19" s="44">
         <v>0.0303</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
       <c r="J19" s="23">
         <f>ROUNDDOWN((-I19 + K18*Q5)/C19)</f>
-        <v>1205</v>
+        <v>1295</v>
       </c>
       <c r="K19" s="46">
         <f t="shared" si="4"/>
-        <v>124627</v>
-      </c>
-      <c r="L19" s="28">
-        <f t="shared" si="2"/>
-        <v>84746.36</v>
+        <v>232385</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="2"/>
+        <v>158021.8</v>
       </c>
       <c r="M19" s="46">
         <f t="shared" si="5"/>
@@ -8370,7 +8372,7 @@
       <c r="H20" s="44">
         <v>0.1176</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8380,11 +8382,11 @@
       </c>
       <c r="K20" s="50">
         <f t="shared" si="4"/>
-        <v>125613</v>
-      </c>
-      <c r="L20" s="21">
-        <f t="shared" si="2"/>
-        <v>95465.88</v>
+        <v>233371</v>
+      </c>
+      <c r="L20" s="35">
+        <f t="shared" si="2"/>
+        <v>177361.96</v>
       </c>
       <c r="M20" s="50">
         <f t="shared" si="5"/>
@@ -8395,11 +8397,11 @@
       </c>
       <c r="P20" s="55">
         <f>(1+Q20)^(12)-1</f>
-        <v>0.5291287223</v>
+        <v>0.7076981808</v>
       </c>
       <c r="Q20" s="56">
         <f>IRR(I3:I75, 0.02)</f>
-        <v>0.03602524285</v>
+        <v>0.04560485949</v>
       </c>
     </row>
     <row r="21">
@@ -8424,21 +8426,21 @@
       <c r="H21" s="44">
         <v>0.0658</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
       <c r="J21" s="23">
         <f>ROUNDDOWN((-I21 + K20*Q6)/C21)</f>
-        <v>1020</v>
+        <v>1101</v>
       </c>
       <c r="K21" s="46">
         <f t="shared" si="4"/>
-        <v>126633</v>
-      </c>
-      <c r="L21" s="28">
-        <f t="shared" si="2"/>
-        <v>102572.73</v>
+        <v>234472</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="2"/>
+        <v>189922.32</v>
       </c>
       <c r="M21" s="46">
         <f t="shared" si="5"/>
@@ -8449,7 +8451,7 @@
       </c>
       <c r="P21" s="58">
         <f t="array" ref="P21">NPV(Q19,I3:I75)</f>
-        <v>142172.9516</v>
+        <v>257445.801</v>
       </c>
       <c r="Q21" s="7"/>
     </row>
@@ -8475,7 +8477,7 @@
       <c r="H22" s="44">
         <v>-0.037</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8485,11 +8487,11 @@
       </c>
       <c r="K22" s="50">
         <f t="shared" si="4"/>
-        <v>127594</v>
-      </c>
-      <c r="L22" s="21">
-        <f t="shared" si="2"/>
-        <v>99523.32</v>
+        <v>235433</v>
+      </c>
+      <c r="L22" s="35">
+        <f t="shared" si="2"/>
+        <v>183637.74</v>
       </c>
       <c r="M22" s="50">
         <f t="shared" si="5"/>
@@ -8518,7 +8520,7 @@
       <c r="H23" s="44">
         <v>-0.0513</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8528,11 +8530,11 @@
       </c>
       <c r="K23" s="46">
         <f t="shared" si="4"/>
-        <v>128607</v>
-      </c>
-      <c r="L23" s="28">
-        <f t="shared" si="2"/>
-        <v>95169.18</v>
+        <v>236446</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="2"/>
+        <v>174970.04</v>
       </c>
       <c r="M23" s="46">
         <f t="shared" si="5"/>
@@ -8566,7 +8568,7 @@
       <c r="H24" s="44">
         <v>-0.0541</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8576,11 +8578,11 @@
       </c>
       <c r="K24" s="50">
         <f t="shared" si="4"/>
-        <v>129678</v>
-      </c>
-      <c r="L24" s="21">
-        <f t="shared" si="2"/>
-        <v>90774.6</v>
+        <v>237517</v>
+      </c>
+      <c r="L24" s="35">
+        <f t="shared" si="2"/>
+        <v>166261.9</v>
       </c>
       <c r="M24" s="50">
         <f t="shared" si="5"/>
@@ -8612,7 +8614,7 @@
       <c r="H25" s="44">
         <v>-0.1286</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8622,11 +8624,11 @@
       </c>
       <c r="K25" s="46">
         <f t="shared" si="4"/>
-        <v>130907</v>
-      </c>
-      <c r="L25" s="28">
-        <f t="shared" si="2"/>
-        <v>79853.27</v>
+        <v>238746</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="2"/>
+        <v>145635.06</v>
       </c>
       <c r="M25" s="46">
         <f t="shared" si="5"/>
@@ -8663,7 +8665,7 @@
       <c r="H26" s="44">
         <v>0.1148</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8673,11 +8675,11 @@
       </c>
       <c r="K26" s="50">
         <f t="shared" si="4"/>
-        <v>132009</v>
-      </c>
-      <c r="L26" s="21">
-        <f t="shared" si="2"/>
-        <v>89766.12</v>
+        <v>239848</v>
+      </c>
+      <c r="L26" s="35">
+        <f t="shared" si="2"/>
+        <v>163096.64</v>
       </c>
       <c r="M26" s="50">
         <f t="shared" si="5"/>
@@ -8714,7 +8716,7 @@
       <c r="H27" s="44">
         <v>0.2647</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8724,11 +8726,11 @@
       </c>
       <c r="K27" s="46">
         <f t="shared" si="4"/>
-        <v>132881</v>
-      </c>
-      <c r="L27" s="28">
-        <f t="shared" si="2"/>
-        <v>114277.66</v>
+        <v>240720</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="2"/>
+        <v>207019.2</v>
       </c>
       <c r="M27" s="46">
         <f t="shared" si="5"/>
@@ -8765,7 +8767,7 @@
       <c r="H28" s="44">
         <v>-0.1395</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8775,11 +8777,11 @@
       </c>
       <c r="K28" s="50">
         <f t="shared" si="4"/>
-        <v>133894</v>
-      </c>
-      <c r="L28" s="21">
-        <f t="shared" si="2"/>
-        <v>99081.56</v>
+        <v>241733</v>
+      </c>
+      <c r="L28" s="35">
+        <f t="shared" si="2"/>
+        <v>178882.42</v>
       </c>
       <c r="M28" s="50">
         <f t="shared" si="5"/>
@@ -8816,7 +8818,7 @@
       <c r="H29" s="44">
         <v>-0.1081</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8826,11 +8828,11 @@
       </c>
       <c r="K29" s="46">
         <f t="shared" si="4"/>
-        <v>135030</v>
-      </c>
-      <c r="L29" s="28">
-        <f t="shared" si="2"/>
-        <v>89119.8</v>
+        <v>242869</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="2"/>
+        <v>160293.54</v>
       </c>
       <c r="M29" s="46">
         <f t="shared" si="5"/>
@@ -8859,7 +8861,7 @@
       <c r="H30" s="44">
         <v>-0.0758</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8869,11 +8871,11 @@
       </c>
       <c r="K30" s="50">
         <f t="shared" si="4"/>
-        <v>136259</v>
-      </c>
-      <c r="L30" s="21">
-        <f t="shared" si="2"/>
-        <v>83117.99</v>
+        <v>244098</v>
+      </c>
+      <c r="L30" s="35">
+        <f t="shared" si="2"/>
+        <v>148899.78</v>
       </c>
       <c r="M30" s="50">
         <f t="shared" si="5"/>
@@ -8902,7 +8904,7 @@
       <c r="H31" s="44">
         <v>-0.0984</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8912,11 +8914,11 @@
       </c>
       <c r="K31" s="46">
         <f t="shared" si="4"/>
-        <v>137622</v>
-      </c>
-      <c r="L31" s="28">
-        <f t="shared" si="2"/>
-        <v>75692.1</v>
+        <v>245461</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="2"/>
+        <v>135003.55</v>
       </c>
       <c r="M31" s="46">
         <f t="shared" si="5"/>
@@ -8945,7 +8947,7 @@
       <c r="H32" s="44">
         <v>0.2</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8955,11 +8957,11 @@
       </c>
       <c r="K32" s="50">
         <f t="shared" si="4"/>
-        <v>138758</v>
-      </c>
-      <c r="L32" s="21">
-        <f t="shared" si="2"/>
-        <v>91580.28</v>
+        <v>246597</v>
+      </c>
+      <c r="L32" s="35">
+        <f t="shared" si="2"/>
+        <v>162754.02</v>
       </c>
       <c r="M32" s="50">
         <f t="shared" si="5"/>
@@ -8988,7 +8990,7 @@
       <c r="H33" s="44">
         <v>-0.0455</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -8998,11 +9000,11 @@
       </c>
       <c r="K33" s="46">
         <f t="shared" si="4"/>
-        <v>139948</v>
-      </c>
-      <c r="L33" s="28">
-        <f t="shared" si="2"/>
-        <v>88167.24</v>
+        <v>247787</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="2"/>
+        <v>156105.81</v>
       </c>
       <c r="M33" s="46">
         <f t="shared" si="5"/>
@@ -9031,7 +9033,7 @@
       <c r="H34" s="44">
         <v>0.0635</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9041,11 +9043,11 @@
       </c>
       <c r="K34" s="50">
         <f t="shared" si="4"/>
-        <v>141067</v>
-      </c>
-      <c r="L34" s="21">
-        <f t="shared" si="2"/>
-        <v>94514.89</v>
+        <v>248906</v>
+      </c>
+      <c r="L34" s="35">
+        <f t="shared" si="2"/>
+        <v>166767.02</v>
       </c>
       <c r="M34" s="50">
         <f t="shared" si="5"/>
@@ -9074,7 +9076,7 @@
       <c r="H35" s="44">
         <v>-0.0746</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9084,11 +9086,11 @@
       </c>
       <c r="K35" s="46">
         <f t="shared" si="4"/>
-        <v>142276</v>
-      </c>
-      <c r="L35" s="28">
-        <f t="shared" si="2"/>
-        <v>88211.12</v>
+        <v>250115</v>
+      </c>
+      <c r="L35" s="12">
+        <f t="shared" si="2"/>
+        <v>155071.3</v>
       </c>
       <c r="M35" s="46">
         <f t="shared" si="5"/>
@@ -9117,7 +9119,7 @@
       <c r="H36" s="44">
         <v>0.0323</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9127,11 +9129,11 @@
       </c>
       <c r="K36" s="50">
         <f t="shared" si="4"/>
-        <v>143447</v>
-      </c>
-      <c r="L36" s="21">
-        <f t="shared" si="2"/>
-        <v>91806.08</v>
+        <v>251286</v>
+      </c>
+      <c r="L36" s="35">
+        <f t="shared" si="2"/>
+        <v>160823.04</v>
       </c>
       <c r="M36" s="50">
         <f t="shared" si="5"/>
@@ -9160,7 +9162,7 @@
       <c r="H37" s="44">
         <v>0.1406</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9170,11 +9172,11 @@
       </c>
       <c r="K37" s="46">
         <f t="shared" si="4"/>
-        <v>144474</v>
-      </c>
-      <c r="L37" s="28">
-        <f t="shared" si="2"/>
-        <v>105466.02</v>
+        <v>252313</v>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" si="2"/>
+        <v>184188.49</v>
       </c>
       <c r="M37" s="46">
         <f t="shared" si="5"/>
@@ -9203,7 +9205,7 @@
       <c r="H38" s="44">
         <v>0.0822</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9213,11 +9215,11 @@
       </c>
       <c r="K38" s="50">
         <f t="shared" si="4"/>
-        <v>145423</v>
-      </c>
-      <c r="L38" s="21">
-        <f t="shared" si="2"/>
-        <v>114884.17</v>
+        <v>253262</v>
+      </c>
+      <c r="L38" s="35">
+        <f t="shared" si="2"/>
+        <v>200076.98</v>
       </c>
       <c r="M38" s="50">
         <f t="shared" si="5"/>
@@ -9246,21 +9248,21 @@
       <c r="H39" s="44">
         <v>0.0633</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
       <c r="J39" s="23">
         <f>ROUNDDOWN((-I39 + K38*Q7)/C39)</f>
-        <v>1005</v>
+        <v>1088</v>
       </c>
       <c r="K39" s="46">
         <f t="shared" si="4"/>
-        <v>146428</v>
-      </c>
-      <c r="L39" s="28">
-        <f t="shared" si="2"/>
-        <v>122999.52</v>
+        <v>254350</v>
+      </c>
+      <c r="L39" s="12">
+        <f t="shared" si="2"/>
+        <v>213654</v>
       </c>
       <c r="M39" s="46">
         <f t="shared" si="5"/>
@@ -9289,7 +9291,7 @@
       <c r="H40" s="44">
         <v>0.0476</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9299,11 +9301,11 @@
       </c>
       <c r="K40" s="50">
         <f>ROUNDDOWN((J40+K39)*(1+1.98%))</f>
-        <v>150196</v>
-      </c>
-      <c r="L40" s="21">
-        <f t="shared" si="2"/>
-        <v>132172.48</v>
+        <v>260254</v>
+      </c>
+      <c r="L40" s="35">
+        <f t="shared" si="2"/>
+        <v>229023.52</v>
       </c>
       <c r="M40" s="50">
         <f t="shared" si="5"/>
@@ -9332,7 +9334,7 @@
       <c r="H41" s="44">
         <v>-0.0568</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9342,11 +9344,11 @@
       </c>
       <c r="K41" s="46">
         <f t="shared" ref="K41:K75" si="11">J41+K40</f>
-        <v>151099</v>
-      </c>
-      <c r="L41" s="28">
-        <f t="shared" si="2"/>
-        <v>125412.17</v>
+        <v>261157</v>
+      </c>
+      <c r="L41" s="12">
+        <f t="shared" si="2"/>
+        <v>216760.31</v>
       </c>
       <c r="M41" s="46">
         <f t="shared" si="5"/>
@@ -9375,7 +9377,7 @@
       <c r="H42" s="44">
         <v>0.0843</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9385,11 +9387,11 @@
       </c>
       <c r="K42" s="50">
         <f t="shared" si="11"/>
-        <v>151932</v>
-      </c>
-      <c r="L42" s="21">
-        <f t="shared" si="2"/>
-        <v>136738.8</v>
+        <v>261990</v>
+      </c>
+      <c r="L42" s="35">
+        <f t="shared" si="2"/>
+        <v>235791</v>
       </c>
       <c r="M42" s="50">
         <f t="shared" si="5"/>
@@ -9418,7 +9420,7 @@
       <c r="H43" s="44">
         <v>-0.1</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I43" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9428,11 +9430,11 @@
       </c>
       <c r="K43" s="46">
         <f t="shared" si="11"/>
-        <v>152857</v>
-      </c>
-      <c r="L43" s="28">
-        <f t="shared" si="2"/>
-        <v>123814.17</v>
+        <v>262915</v>
+      </c>
+      <c r="L43" s="12">
+        <f t="shared" si="2"/>
+        <v>212961.15</v>
       </c>
       <c r="M43" s="46">
         <f t="shared" si="5"/>
@@ -9461,21 +9463,21 @@
       <c r="H44" s="44">
         <v>-0.0494</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
       <c r="J44" s="23">
         <f>ROUNDDOWN((-I44 + K43*Q9)/C44)</f>
-        <v>1260</v>
+        <v>1466</v>
       </c>
       <c r="K44" s="50">
         <f t="shared" si="11"/>
-        <v>154117</v>
-      </c>
-      <c r="L44" s="21">
-        <f t="shared" si="2"/>
-        <v>118670.09</v>
+        <v>264381</v>
+      </c>
+      <c r="L44" s="35">
+        <f t="shared" si="2"/>
+        <v>203573.37</v>
       </c>
       <c r="M44" s="50">
         <f t="shared" si="5"/>
@@ -9504,7 +9506,7 @@
       <c r="H45" s="44">
         <v>-0.1688</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9514,11 +9516,11 @@
       </c>
       <c r="K45" s="46">
         <f t="shared" si="11"/>
-        <v>155288</v>
-      </c>
-      <c r="L45" s="28">
-        <f t="shared" si="2"/>
-        <v>99384.32</v>
+        <v>265552</v>
+      </c>
+      <c r="L45" s="12">
+        <f t="shared" si="2"/>
+        <v>169953.28</v>
       </c>
       <c r="M45" s="46">
         <f t="shared" si="5"/>
@@ -9547,7 +9549,7 @@
       <c r="H46" s="44">
         <v>0.0469</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9557,11 +9559,11 @@
       </c>
       <c r="K46" s="50">
         <f t="shared" si="11"/>
-        <v>156407</v>
-      </c>
-      <c r="L46" s="21">
-        <f t="shared" si="2"/>
-        <v>104792.69</v>
+        <v>266671</v>
+      </c>
+      <c r="L46" s="35">
+        <f t="shared" si="2"/>
+        <v>178669.57</v>
       </c>
       <c r="M46" s="50">
         <f t="shared" si="5"/>
@@ -9590,7 +9592,7 @@
       <c r="H47" s="44">
         <v>-0.2537</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9600,11 +9602,11 @@
       </c>
       <c r="K47" s="46">
         <f t="shared" si="11"/>
-        <v>157907</v>
-      </c>
-      <c r="L47" s="28">
-        <f t="shared" si="2"/>
-        <v>78953.5</v>
+        <v>268171</v>
+      </c>
+      <c r="L47" s="12">
+        <f t="shared" si="2"/>
+        <v>134085.5</v>
       </c>
       <c r="M47" s="46">
         <f t="shared" si="5"/>
@@ -9633,7 +9635,7 @@
       <c r="H48" s="44">
         <v>0.18</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9643,11 +9645,11 @@
       </c>
       <c r="K48" s="50">
         <f t="shared" si="11"/>
-        <v>159178</v>
-      </c>
-      <c r="L48" s="21">
-        <f t="shared" si="2"/>
-        <v>93915.02</v>
+        <v>269442</v>
+      </c>
+      <c r="L48" s="35">
+        <f t="shared" si="2"/>
+        <v>158970.78</v>
       </c>
       <c r="M48" s="50">
         <f t="shared" si="5"/>
@@ -9676,7 +9678,7 @@
       <c r="H49" s="44">
         <v>-0.0169</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9686,11 +9688,11 @@
       </c>
       <c r="K49" s="46">
         <f t="shared" si="11"/>
-        <v>160471</v>
-      </c>
-      <c r="L49" s="28">
-        <f t="shared" si="2"/>
-        <v>93073.18</v>
+        <v>270735</v>
+      </c>
+      <c r="L49" s="12">
+        <f t="shared" si="2"/>
+        <v>157026.3</v>
       </c>
       <c r="M49" s="46">
         <f t="shared" si="5"/>
@@ -9719,7 +9721,7 @@
       <c r="H50" s="44">
         <v>0.1034</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9729,11 +9731,11 @@
       </c>
       <c r="K50" s="50">
         <f t="shared" si="11"/>
-        <v>161642</v>
-      </c>
-      <c r="L50" s="21">
-        <f t="shared" si="2"/>
-        <v>103450.88</v>
+        <v>271906</v>
+      </c>
+      <c r="L50" s="35">
+        <f t="shared" si="2"/>
+        <v>174019.84</v>
       </c>
       <c r="M50" s="50">
         <f t="shared" si="5"/>
@@ -9762,21 +9764,21 @@
       <c r="H51" s="44">
         <v>-0.0625</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
       <c r="J51" s="23">
         <f>ROUNDDOWN((-I51 + K50*Q10)/C51)</f>
-        <v>1416</v>
+        <v>1529</v>
       </c>
       <c r="K51" s="46">
         <f t="shared" si="11"/>
-        <v>163058</v>
-      </c>
-      <c r="L51" s="28">
-        <f t="shared" si="2"/>
-        <v>97834.8</v>
+        <v>273435</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="2"/>
+        <v>164061</v>
       </c>
       <c r="M51" s="46">
         <f t="shared" si="5"/>
@@ -9805,7 +9807,7 @@
       <c r="H52" s="44">
         <v>-0.0833</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9815,11 +9817,11 @@
       </c>
       <c r="K52" s="50">
         <f t="shared" si="11"/>
-        <v>164421</v>
-      </c>
-      <c r="L52" s="21">
-        <f t="shared" si="2"/>
-        <v>90431.55</v>
+        <v>274798</v>
+      </c>
+      <c r="L52" s="35">
+        <f t="shared" si="2"/>
+        <v>151138.9</v>
       </c>
       <c r="M52" s="50">
         <f t="shared" si="5"/>
@@ -9848,7 +9850,7 @@
       <c r="H53" s="44">
         <v>0.1091</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9858,11 +9860,11 @@
       </c>
       <c r="K53" s="46">
         <f t="shared" si="11"/>
-        <v>165650</v>
-      </c>
-      <c r="L53" s="28">
-        <f t="shared" si="2"/>
-        <v>101046.5</v>
+        <v>276027</v>
+      </c>
+      <c r="L53" s="12">
+        <f t="shared" si="2"/>
+        <v>168376.47</v>
       </c>
       <c r="M53" s="46">
         <f t="shared" si="5"/>
@@ -9891,7 +9893,7 @@
       <c r="H54" s="44">
         <v>0.2131</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9901,11 +9903,11 @@
       </c>
       <c r="K54" s="50">
         <f t="shared" si="11"/>
-        <v>166663</v>
-      </c>
-      <c r="L54" s="21">
-        <f t="shared" si="2"/>
-        <v>123330.62</v>
+        <v>277040</v>
+      </c>
+      <c r="L54" s="35">
+        <f t="shared" si="2"/>
+        <v>205009.6</v>
       </c>
       <c r="M54" s="50">
         <f t="shared" si="5"/>
@@ -9934,7 +9936,7 @@
       <c r="H55" s="44">
         <v>-0.0135</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9944,11 +9946,11 @@
       </c>
       <c r="K55" s="46">
         <f t="shared" si="11"/>
-        <v>167690</v>
-      </c>
-      <c r="L55" s="28">
-        <f t="shared" si="2"/>
-        <v>122413.7</v>
+        <v>278067</v>
+      </c>
+      <c r="L55" s="12">
+        <f t="shared" si="2"/>
+        <v>202988.91</v>
       </c>
       <c r="M55" s="46">
         <f t="shared" si="5"/>
@@ -9977,7 +9979,7 @@
       <c r="H56" s="44">
         <v>-0.137</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -9987,11 +9989,11 @@
       </c>
       <c r="K56" s="50">
         <f t="shared" si="11"/>
-        <v>168880</v>
-      </c>
-      <c r="L56" s="21">
-        <f t="shared" si="2"/>
-        <v>106394.4</v>
+        <v>279257</v>
+      </c>
+      <c r="L56" s="35">
+        <f t="shared" si="2"/>
+        <v>175931.91</v>
       </c>
       <c r="M56" s="50">
         <f t="shared" si="5"/>
@@ -10020,7 +10022,7 @@
       <c r="H57" s="44">
         <v>0.0317</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I57" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10030,11 +10032,11 @@
       </c>
       <c r="K57" s="46">
         <f t="shared" si="11"/>
-        <v>170033</v>
-      </c>
-      <c r="L57" s="28">
-        <f t="shared" si="2"/>
-        <v>110521.45</v>
+        <v>280410</v>
+      </c>
+      <c r="L57" s="12">
+        <f t="shared" si="2"/>
+        <v>182266.5</v>
       </c>
       <c r="M57" s="46">
         <f t="shared" si="5"/>
@@ -10063,7 +10065,7 @@
       <c r="H58" s="44">
         <v>0.2</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10073,11 +10075,11 @@
       </c>
       <c r="K58" s="50">
         <f t="shared" si="11"/>
-        <v>170994</v>
-      </c>
-      <c r="L58" s="21">
-        <f t="shared" si="2"/>
-        <v>133375.32</v>
+        <v>281371</v>
+      </c>
+      <c r="L58" s="35">
+        <f t="shared" si="2"/>
+        <v>219469.38</v>
       </c>
       <c r="M58" s="50">
         <f t="shared" si="5"/>
@@ -10106,7 +10108,7 @@
       <c r="H59" s="44">
         <v>0.0641</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I59" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10116,11 +10118,11 @@
       </c>
       <c r="K59" s="46">
         <f t="shared" si="11"/>
-        <v>171897</v>
-      </c>
-      <c r="L59" s="28">
-        <f t="shared" si="2"/>
-        <v>142674.51</v>
+        <v>282274</v>
+      </c>
+      <c r="L59" s="12">
+        <f t="shared" si="2"/>
+        <v>234287.42</v>
       </c>
       <c r="M59" s="46">
         <f t="shared" si="5"/>
@@ -10149,7 +10151,7 @@
       <c r="H60" s="44">
         <v>0.2289</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10159,11 +10161,11 @@
       </c>
       <c r="K60" s="50">
         <f t="shared" si="11"/>
-        <v>172632</v>
-      </c>
-      <c r="L60" s="21">
-        <f t="shared" si="2"/>
-        <v>176084.64</v>
+        <v>283009</v>
+      </c>
+      <c r="L60" s="35">
+        <f t="shared" si="2"/>
+        <v>288669.18</v>
       </c>
       <c r="M60" s="50">
         <f t="shared" si="5"/>
@@ -10192,7 +10194,7 @@
       <c r="H61" s="44">
         <v>0.1078</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10202,11 +10204,11 @@
       </c>
       <c r="K61" s="46">
         <f t="shared" si="11"/>
-        <v>173295</v>
-      </c>
-      <c r="L61" s="28">
-        <f t="shared" si="2"/>
-        <v>195823.35</v>
+        <v>283672</v>
+      </c>
+      <c r="L61" s="12">
+        <f t="shared" si="2"/>
+        <v>320549.36</v>
       </c>
       <c r="M61" s="46">
         <f t="shared" si="5"/>
@@ -10235,7 +10237,7 @@
       <c r="H62" s="44">
         <v>0.1239</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10245,11 +10247,11 @@
       </c>
       <c r="K62" s="50">
         <f t="shared" si="11"/>
-        <v>173885</v>
-      </c>
-      <c r="L62" s="21">
-        <f t="shared" si="2"/>
-        <v>220833.95</v>
+        <v>284262</v>
+      </c>
+      <c r="L62" s="35">
+        <f t="shared" si="2"/>
+        <v>361012.74</v>
       </c>
       <c r="M62" s="50">
         <f t="shared" si="5"/>
@@ -10278,21 +10280,21 @@
       <c r="H63" s="44">
         <v>-0.0551</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
       <c r="J63" s="23">
         <f>ROUNDDOWN((-I63 + K62*Q11)/C63)</f>
-        <v>848</v>
+        <v>990</v>
       </c>
       <c r="K63" s="46">
         <f t="shared" si="11"/>
-        <v>174733</v>
-      </c>
-      <c r="L63" s="28">
-        <f t="shared" si="2"/>
-        <v>209679.6</v>
+        <v>285252</v>
+      </c>
+      <c r="L63" s="12">
+        <f t="shared" si="2"/>
+        <v>342302.4</v>
       </c>
       <c r="M63" s="46">
         <f t="shared" si="5"/>
@@ -10321,7 +10323,7 @@
       <c r="H64" s="44">
         <v>0.0417</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10331,11 +10333,11 @@
       </c>
       <c r="K64" s="50">
         <f t="shared" si="11"/>
-        <v>175333</v>
-      </c>
-      <c r="L64" s="21">
-        <f t="shared" si="2"/>
-        <v>219166.25</v>
+        <v>285852</v>
+      </c>
+      <c r="L64" s="35">
+        <f t="shared" si="2"/>
+        <v>357315</v>
       </c>
       <c r="M64" s="50">
         <f t="shared" si="5"/>
@@ -10364,7 +10366,7 @@
       <c r="H65" s="44">
         <v>-0.024</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10374,11 +10376,11 @@
       </c>
       <c r="K65" s="46">
         <f t="shared" si="11"/>
-        <v>175947</v>
-      </c>
-      <c r="L65" s="28">
-        <f t="shared" si="2"/>
-        <v>214655.34</v>
+        <v>286466</v>
+      </c>
+      <c r="L65" s="12">
+        <f t="shared" si="2"/>
+        <v>349488.52</v>
       </c>
       <c r="M65" s="46">
         <f t="shared" si="5"/>
@@ -10407,7 +10409,7 @@
       <c r="H66" s="44">
         <v>-0.0902</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10417,11 +10419,11 @@
       </c>
       <c r="K66" s="50">
         <f t="shared" si="11"/>
-        <v>176622</v>
-      </c>
-      <c r="L66" s="21">
-        <f t="shared" si="2"/>
-        <v>196050.42</v>
+        <v>287141</v>
+      </c>
+      <c r="L66" s="35">
+        <f t="shared" si="2"/>
+        <v>318726.51</v>
       </c>
       <c r="M66" s="50">
         <f t="shared" si="5"/>
@@ -10450,7 +10452,7 @@
       <c r="H67" s="44">
         <v>-0.0541</v>
       </c>
-      <c r="I67" s="28">
+      <c r="I67" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10460,11 +10462,11 @@
       </c>
       <c r="K67" s="46">
         <f t="shared" si="11"/>
-        <v>177336</v>
-      </c>
-      <c r="L67" s="28">
-        <f t="shared" si="2"/>
-        <v>186202.8</v>
+        <v>287855</v>
+      </c>
+      <c r="L67" s="12">
+        <f t="shared" si="2"/>
+        <v>302247.75</v>
       </c>
       <c r="M67" s="46">
         <f t="shared" si="5"/>
@@ -10493,21 +10495,21 @@
       <c r="H68" s="44">
         <v>0.0571</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
       <c r="J68" s="23">
         <f t="shared" ref="J68:J69" si="15">ROUNDDOWN((-I68 + K67*Q12)/C68)</f>
-        <v>745</v>
+        <v>788</v>
       </c>
       <c r="K68" s="50">
         <f t="shared" si="11"/>
-        <v>178081</v>
-      </c>
-      <c r="L68" s="21">
-        <f t="shared" si="2"/>
-        <v>197669.91</v>
+        <v>288643</v>
+      </c>
+      <c r="L68" s="35">
+        <f t="shared" si="2"/>
+        <v>320393.73</v>
       </c>
       <c r="M68" s="50">
         <f t="shared" si="5"/>
@@ -10536,21 +10538,21 @@
       <c r="H69" s="44">
         <v>0.2072</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
       <c r="J69" s="23">
         <f t="shared" si="15"/>
-        <v>723</v>
+        <v>825</v>
       </c>
       <c r="K69" s="46">
         <f t="shared" si="11"/>
-        <v>178804</v>
-      </c>
-      <c r="L69" s="28">
-        <f t="shared" si="2"/>
-        <v>239597.36</v>
+        <v>289468</v>
+      </c>
+      <c r="L69" s="12">
+        <f t="shared" si="2"/>
+        <v>387887.12</v>
       </c>
       <c r="M69" s="46">
         <f t="shared" si="5"/>
@@ -10579,7 +10581,7 @@
       <c r="H70" s="44">
         <v>-0.0299</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I70" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10589,11 +10591,11 @@
       </c>
       <c r="K70" s="50">
         <f t="shared" si="11"/>
-        <v>179380</v>
-      </c>
-      <c r="L70" s="21">
-        <f t="shared" si="2"/>
-        <v>233194</v>
+        <v>290044</v>
+      </c>
+      <c r="L70" s="35">
+        <f t="shared" si="2"/>
+        <v>377057.2</v>
       </c>
       <c r="M70" s="50">
         <f t="shared" si="5"/>
@@ -10622,7 +10624,7 @@
       <c r="H71" s="44">
         <v>0.1154</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10632,11 +10634,11 @@
       </c>
       <c r="K71" s="46">
         <f t="shared" si="11"/>
-        <v>179897</v>
-      </c>
-      <c r="L71" s="28">
-        <f t="shared" si="2"/>
-        <v>260850.65</v>
+        <v>290561</v>
+      </c>
+      <c r="L71" s="12">
+        <f t="shared" si="2"/>
+        <v>421313.45</v>
       </c>
       <c r="M71" s="46">
         <f t="shared" si="5"/>
@@ -10665,21 +10667,21 @@
       <c r="H72" s="44">
         <v>0.0966</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I72" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
       <c r="J72" s="23">
         <f>ROUNDDOWN((-I72 + K71*Q14)/C72)</f>
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="K72" s="50">
         <f t="shared" si="11"/>
-        <v>180438</v>
-      </c>
-      <c r="L72" s="21">
-        <f t="shared" si="2"/>
-        <v>286896.42</v>
+        <v>291145</v>
+      </c>
+      <c r="L72" s="35">
+        <f t="shared" si="2"/>
+        <v>462920.55</v>
       </c>
       <c r="M72" s="50">
         <f t="shared" si="5"/>
@@ -10708,7 +10710,7 @@
       <c r="H73" s="44">
         <v>-0.044</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="12">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10718,11 +10720,11 @@
       </c>
       <c r="K73" s="46">
         <f t="shared" si="11"/>
-        <v>180931</v>
-      </c>
-      <c r="L73" s="28">
-        <f t="shared" si="2"/>
-        <v>275015.12</v>
+        <v>291638</v>
+      </c>
+      <c r="L73" s="12">
+        <f t="shared" si="2"/>
+        <v>443289.76</v>
       </c>
       <c r="M73" s="46">
         <f t="shared" si="5"/>
@@ -10751,7 +10753,7 @@
       <c r="H74" s="44">
         <v>0.0263</v>
       </c>
-      <c r="I74" s="21">
+      <c r="I74" s="35">
         <f t="shared" si="3"/>
         <v>-750</v>
       </c>
@@ -10761,11 +10763,11 @@
       </c>
       <c r="K74" s="50">
         <f t="shared" si="11"/>
-        <v>181411</v>
-      </c>
-      <c r="L74" s="21">
-        <f t="shared" si="2"/>
-        <v>283001.16</v>
+        <v>292118</v>
+      </c>
+      <c r="L74" s="35">
+        <f t="shared" si="2"/>
+        <v>455704.08</v>
       </c>
       <c r="M74" s="50">
         <f t="shared" si="5"/>
@@ -10794,21 +10796,21 @@
       <c r="H75" s="44">
         <v>-0.1026</v>
       </c>
-      <c r="I75" s="28">
+      <c r="I75" s="12">
         <f>L75</f>
-        <v>254164.4</v>
+        <v>409270.4</v>
       </c>
       <c r="J75" s="14">
         <f>ROUNDDOWN(K74*Q15/C75)</f>
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="K75" s="46">
         <f t="shared" si="11"/>
-        <v>181546</v>
-      </c>
-      <c r="L75" s="28">
-        <f t="shared" si="2"/>
-        <v>254164.4</v>
+        <v>292336</v>
+      </c>
+      <c r="L75" s="12">
+        <f t="shared" si="2"/>
+        <v>409270.4</v>
       </c>
       <c r="M75" s="46">
         <f t="shared" si="5"/>
@@ -10839,6 +10841,7 @@
     <col customWidth="1" min="2" max="2" width="15.38"/>
     <col customWidth="1" min="9" max="9" width="16.0"/>
     <col customWidth="1" min="12" max="12" width="15.13"/>
+    <col customWidth="1" min="16" max="16" width="14.88"/>
     <col customWidth="1" min="17" max="17" width="18.5"/>
     <col customWidth="1" min="18" max="18" width="16.75"/>
   </cols>
@@ -10906,7 +10909,7 @@
       <c r="R2" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="X2" s="28">
+      <c r="X2" s="12">
         <f>-750 - 99775.2</f>
         <v>-100525.2</v>
       </c>
@@ -10942,11 +10945,11 @@
       </c>
       <c r="K3" s="77">
         <f>'1999-2004 (Parte 4)'!K75 + J3</f>
-        <v>182081</v>
+        <v>292871</v>
       </c>
       <c r="L3" s="34">
         <f t="shared" ref="L3:L74" si="1">K3*C3</f>
-        <v>254913.4</v>
+        <v>410019.4</v>
       </c>
       <c r="M3" s="77">
         <v>1.0</v>
@@ -10963,7 +10966,7 @@
       <c r="R3" s="79">
         <v>1000.0</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="35">
         <f>-750</f>
         <v>-750</v>
       </c>
@@ -10996,15 +10999,15 @@
       </c>
       <c r="J4" s="80">
         <f>ROUNDDOWN((-I4 + P3*K3/R3)/C4)</f>
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="K4" s="80">
         <f t="shared" ref="K4:K75" si="3">J4+K3</f>
-        <v>182571</v>
+        <v>293378</v>
       </c>
       <c r="L4" s="36">
         <f t="shared" si="1"/>
-        <v>295765.02</v>
+        <v>475272.36</v>
       </c>
       <c r="M4" s="80">
         <f t="shared" ref="M4:M75" si="4">M3+1</f>
@@ -11022,7 +11025,7 @@
       <c r="R4" s="79">
         <v>1000.0</v>
       </c>
-      <c r="X4" s="28">
+      <c r="X4" s="12">
         <f t="shared" ref="X4:X73" si="5">X3</f>
         <v>-750</v>
       </c>
@@ -11059,11 +11062,11 @@
       </c>
       <c r="K5" s="77">
         <f t="shared" si="3"/>
-        <v>183077</v>
+        <v>293884</v>
       </c>
       <c r="L5" s="34">
         <f t="shared" si="1"/>
-        <v>270953.96</v>
+        <v>434948.32</v>
       </c>
       <c r="M5" s="77">
         <f t="shared" si="4"/>
@@ -11081,7 +11084,7 @@
       <c r="R5" s="79">
         <v>1000.0</v>
       </c>
-      <c r="X5" s="21">
+      <c r="X5" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11118,11 +11121,11 @@
       </c>
       <c r="K6" s="80">
         <f t="shared" si="3"/>
-        <v>183503</v>
+        <v>294310</v>
       </c>
       <c r="L6" s="36">
         <f t="shared" si="1"/>
-        <v>322965.28</v>
+        <v>517985.6</v>
       </c>
       <c r="M6" s="80">
         <f t="shared" si="4"/>
@@ -11140,7 +11143,7 @@
       <c r="R6" s="79">
         <v>1000.0</v>
       </c>
-      <c r="X6" s="28">
+      <c r="X6" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11173,15 +11176,15 @@
       </c>
       <c r="J7" s="77">
         <f>ROUNDDOWN((-I7 + P4*K6/R4)/C7)</f>
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="K7" s="77">
         <f t="shared" si="3"/>
-        <v>184046</v>
+        <v>294924</v>
       </c>
       <c r="L7" s="34">
         <f t="shared" si="1"/>
-        <v>323920.96</v>
+        <v>519066.24</v>
       </c>
       <c r="M7" s="77">
         <f t="shared" si="4"/>
@@ -11199,7 +11202,7 @@
       <c r="R7" s="79">
         <v>1000.0</v>
       </c>
-      <c r="X7" s="21">
+      <c r="X7" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11236,11 +11239,11 @@
       </c>
       <c r="K8" s="80">
         <f t="shared" si="3"/>
-        <v>184464</v>
+        <v>295342</v>
       </c>
       <c r="L8" s="36">
         <f t="shared" si="1"/>
-        <v>330190.56</v>
+        <v>528662.18</v>
       </c>
       <c r="M8" s="80">
         <f t="shared" si="4"/>
@@ -11258,7 +11261,7 @@
       <c r="R8" s="79">
         <v>1000.0</v>
       </c>
-      <c r="X8" s="28">
+      <c r="X8" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11295,11 +11298,11 @@
       </c>
       <c r="K9" s="77">
         <f t="shared" si="3"/>
-        <v>184867</v>
+        <v>295745</v>
       </c>
       <c r="L9" s="34">
         <f t="shared" si="1"/>
-        <v>343852.62</v>
+        <v>550085.7</v>
       </c>
       <c r="M9" s="77">
         <f t="shared" si="4"/>
@@ -11317,7 +11320,7 @@
       <c r="R9" s="79">
         <v>1000.0</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11350,15 +11353,15 @@
       </c>
       <c r="J10" s="80">
         <f>ROUNDDOWN((-I10 + P5*K9/R5)/C10)</f>
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="K10" s="80">
         <f t="shared" si="3"/>
-        <v>185327</v>
+        <v>296254</v>
       </c>
       <c r="L10" s="36">
         <f t="shared" si="1"/>
-        <v>366947.46</v>
+        <v>586582.92</v>
       </c>
       <c r="M10" s="80">
         <f t="shared" si="4"/>
@@ -11376,7 +11379,7 @@
       <c r="R10" s="79">
         <v>1000.0</v>
       </c>
-      <c r="X10" s="28">
+      <c r="X10" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11413,11 +11416,11 @@
       </c>
       <c r="K11" s="77">
         <f t="shared" si="3"/>
-        <v>185692</v>
+        <v>296619</v>
       </c>
       <c r="L11" s="34">
         <f t="shared" si="1"/>
-        <v>380668.6</v>
+        <v>608068.95</v>
       </c>
       <c r="M11" s="77">
         <f t="shared" si="4"/>
@@ -11435,7 +11438,7 @@
       <c r="R11" s="79">
         <v>1000.0</v>
       </c>
-      <c r="X11" s="21">
+      <c r="X11" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11472,11 +11475,11 @@
       </c>
       <c r="K12" s="80">
         <f t="shared" si="3"/>
-        <v>186072</v>
+        <v>296999</v>
       </c>
       <c r="L12" s="36">
         <f t="shared" si="1"/>
-        <v>366561.84</v>
+        <v>585088.03</v>
       </c>
       <c r="M12" s="80">
         <f t="shared" si="4"/>
@@ -11495,7 +11498,7 @@
       <c r="R12" s="79">
         <v>1000.0</v>
       </c>
-      <c r="X12" s="28">
+      <c r="X12" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11532,11 +11535,11 @@
       </c>
       <c r="K13" s="77">
         <f t="shared" si="3"/>
-        <v>186420</v>
+        <v>297347</v>
       </c>
       <c r="L13" s="34">
         <f t="shared" si="1"/>
-        <v>400803</v>
+        <v>639296.05</v>
       </c>
       <c r="M13" s="77">
         <f t="shared" si="4"/>
@@ -11554,7 +11557,7 @@
       <c r="R13" s="79">
         <v>1.0</v>
       </c>
-      <c r="X13" s="21">
+      <c r="X13" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11587,15 +11590,15 @@
       </c>
       <c r="J14" s="80">
         <f>ROUNDDOWN((-I14 + P6*K13/R6)/C14)</f>
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="K14" s="80">
         <f t="shared" si="3"/>
-        <v>186796</v>
+        <v>297752</v>
       </c>
       <c r="L14" s="36">
         <f t="shared" si="1"/>
-        <v>427762.84</v>
+        <v>681852.08</v>
       </c>
       <c r="M14" s="80">
         <f t="shared" si="4"/>
@@ -11613,7 +11616,7 @@
       <c r="R14" s="79">
         <v>1.0</v>
       </c>
-      <c r="X14" s="28">
+      <c r="X14" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11650,11 +11653,11 @@
       </c>
       <c r="K15" s="77">
         <f t="shared" si="3"/>
-        <v>187087</v>
+        <v>298043</v>
       </c>
       <c r="L15" s="34">
         <f t="shared" si="1"/>
-        <v>480813.59</v>
+        <v>765970.51</v>
       </c>
       <c r="M15" s="77">
         <f t="shared" si="4"/>
@@ -11672,7 +11675,7 @@
       <c r="R15" s="79">
         <v>1.0</v>
       </c>
-      <c r="X15" s="21">
+      <c r="X15" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11705,15 +11708,15 @@
       </c>
       <c r="J16" s="80">
         <f>ROUNDDOWN((-I16 + P7*K15/R7 + P8*K15/R8)/C16)</f>
-        <v>716</v>
+        <v>970</v>
       </c>
       <c r="K16" s="80">
         <f t="shared" si="3"/>
-        <v>187803</v>
+        <v>299013</v>
       </c>
       <c r="L16" s="36">
         <f t="shared" si="1"/>
-        <v>492043.86</v>
+        <v>783414.06</v>
       </c>
       <c r="M16" s="80">
         <f t="shared" si="4"/>
@@ -11731,7 +11734,7 @@
       <c r="R16" s="79">
         <v>1.0</v>
       </c>
-      <c r="X16" s="28">
+      <c r="X16" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11768,17 +11771,17 @@
       </c>
       <c r="K17" s="77">
         <f t="shared" si="3"/>
-        <v>188118</v>
+        <v>299328</v>
       </c>
       <c r="L17" s="34">
         <f t="shared" si="1"/>
-        <v>447720.84</v>
+        <v>712400.64</v>
       </c>
       <c r="M17" s="77">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="X17" s="21">
+      <c r="X17" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11815,11 +11818,11 @@
       </c>
       <c r="K18" s="80">
         <f t="shared" si="3"/>
-        <v>188427</v>
+        <v>299637</v>
       </c>
       <c r="L18" s="36">
         <f t="shared" si="1"/>
-        <v>455993.34</v>
+        <v>725121.54</v>
       </c>
       <c r="M18" s="80">
         <f t="shared" si="4"/>
@@ -11834,7 +11837,7 @@
       <c r="Q18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="X18" s="28">
+      <c r="X18" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11867,15 +11870,15 @@
       </c>
       <c r="J19" s="77">
         <f>ROUNDDOWN((-I19 + P10*K18/R10)/C19)</f>
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="K19" s="77">
         <f t="shared" si="3"/>
-        <v>188830</v>
+        <v>300068</v>
       </c>
       <c r="L19" s="34">
         <f t="shared" si="1"/>
-        <v>396543</v>
+        <v>630142.8</v>
       </c>
       <c r="M19" s="77">
         <f t="shared" si="4"/>
@@ -11891,7 +11894,7 @@
         <f>(1+P19)^(1/12)-1</f>
         <v>0.004074123784</v>
       </c>
-      <c r="X19" s="21">
+      <c r="X19" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11924,15 +11927,15 @@
       </c>
       <c r="J20" s="80">
         <f>ROUNDDOWN((-I20 + P10*K19/R10)/C20)</f>
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="K20" s="80">
         <f t="shared" si="3"/>
-        <v>189213</v>
+        <v>300478</v>
       </c>
       <c r="L20" s="36">
         <f t="shared" si="1"/>
-        <v>418160.73</v>
+        <v>664056.38</v>
       </c>
       <c r="M20" s="80">
         <f t="shared" si="4"/>
@@ -11949,7 +11952,7 @@
         <f>IRR(X2:X74, 0.02)</f>
         <v>0.02834824834</v>
       </c>
-      <c r="X20" s="28">
+      <c r="X20" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -11986,11 +11989,11 @@
       </c>
       <c r="K21" s="77">
         <f t="shared" si="3"/>
-        <v>189544</v>
+        <v>300809</v>
       </c>
       <c r="L21" s="34">
         <f t="shared" si="1"/>
-        <v>428369.44</v>
+        <v>679828.34</v>
       </c>
       <c r="M21" s="77">
         <f t="shared" si="4"/>
@@ -12001,10 +12004,10 @@
       </c>
       <c r="P21" s="58">
         <f t="array" ref="P21">NPV(Q19,-L3+I3,I4:I75)</f>
-        <v>1234682.373</v>
+        <v>1929323.513</v>
       </c>
       <c r="Q21" s="7"/>
-      <c r="X21" s="21">
+      <c r="X21" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12037,21 +12040,21 @@
       </c>
       <c r="J22" s="80">
         <f>ROUNDDOWN((-I22 + P11*K21/R11)/C22)</f>
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="K22" s="80">
         <f t="shared" si="3"/>
-        <v>189938</v>
+        <v>301227</v>
       </c>
       <c r="L22" s="36">
         <f t="shared" si="1"/>
-        <v>404567.94</v>
+        <v>641613.51</v>
       </c>
       <c r="M22" s="80">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="X22" s="28">
+      <c r="X22" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12088,11 +12091,11 @@
       </c>
       <c r="K23" s="77">
         <f t="shared" si="3"/>
-        <v>190303</v>
+        <v>301592</v>
       </c>
       <c r="L23" s="34">
         <f t="shared" si="1"/>
-        <v>390121.15</v>
+        <v>618263.6</v>
       </c>
       <c r="M23" s="77">
         <f t="shared" si="4"/>
@@ -12103,7 +12106,7 @@
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="X23" s="21">
+      <c r="X23" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12140,11 +12143,11 @@
       </c>
       <c r="K24" s="80">
         <f t="shared" si="3"/>
-        <v>190640</v>
+        <v>301929</v>
       </c>
       <c r="L24" s="36">
         <f t="shared" si="1"/>
-        <v>423220.8</v>
+        <v>670282.38</v>
       </c>
       <c r="M24" s="80">
         <f t="shared" si="4"/>
@@ -12153,7 +12156,7 @@
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
-      <c r="X24" s="28">
+      <c r="X24" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12190,11 +12193,11 @@
       </c>
       <c r="K25" s="77">
         <f t="shared" si="3"/>
-        <v>190957</v>
+        <v>302246</v>
       </c>
       <c r="L25" s="34">
         <f t="shared" si="1"/>
-        <v>450658.52</v>
+        <v>713300.56</v>
       </c>
       <c r="M25" s="77">
         <f t="shared" si="4"/>
@@ -12208,7 +12211,7 @@
         <f>C3</f>
         <v>1.4</v>
       </c>
-      <c r="X25" s="21">
+      <c r="X25" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12245,11 +12248,11 @@
       </c>
       <c r="K26" s="80">
         <f t="shared" si="3"/>
-        <v>191253</v>
+        <v>302542</v>
       </c>
       <c r="L26" s="36">
         <f t="shared" si="1"/>
-        <v>483870.09</v>
+        <v>765431.26</v>
       </c>
       <c r="M26" s="80">
         <f t="shared" si="4"/>
@@ -12263,7 +12266,7 @@
         <f t="shared" ref="Q26:Q27" si="11">C74</f>
         <v>3.15</v>
       </c>
-      <c r="X26" s="28">
+      <c r="X26" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12300,11 +12303,11 @@
       </c>
       <c r="K27" s="77">
         <f t="shared" si="3"/>
-        <v>191559</v>
+        <v>302848</v>
       </c>
       <c r="L27" s="34">
         <f t="shared" si="1"/>
-        <v>469319.55</v>
+        <v>741977.6</v>
       </c>
       <c r="M27" s="77">
         <f t="shared" si="4"/>
@@ -12318,7 +12321,7 @@
         <f t="shared" si="11"/>
         <v>3.23</v>
       </c>
-      <c r="X27" s="21">
+      <c r="X27" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12355,11 +12358,11 @@
       </c>
       <c r="K28" s="80">
         <f t="shared" si="3"/>
-        <v>191867</v>
+        <v>303156</v>
       </c>
       <c r="L28" s="36">
         <f t="shared" si="1"/>
-        <v>466236.81</v>
+        <v>736669.08</v>
       </c>
       <c r="M28" s="80">
         <f t="shared" si="4"/>
@@ -12373,7 +12376,7 @@
         <f>Q27/Q25</f>
         <v>2.307142857</v>
       </c>
-      <c r="X28" s="28">
+      <c r="X28" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12410,17 +12413,17 @@
       </c>
       <c r="K29" s="77">
         <f t="shared" si="3"/>
-        <v>192175</v>
+        <v>303464</v>
       </c>
       <c r="L29" s="34">
         <f t="shared" si="1"/>
-        <v>466985.25</v>
+        <v>737417.52</v>
       </c>
       <c r="M29" s="77">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="X29" s="21">
+      <c r="X29" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12457,17 +12460,17 @@
       </c>
       <c r="K30" s="80">
         <f t="shared" si="3"/>
-        <v>192464</v>
+        <v>303753</v>
       </c>
       <c r="L30" s="36">
         <f t="shared" si="1"/>
-        <v>498481.76</v>
+        <v>786720.27</v>
       </c>
       <c r="M30" s="80">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="X30" s="28">
+      <c r="X30" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12500,21 +12503,21 @@
       </c>
       <c r="J31" s="77">
         <f>ROUNDDOWN((-I31 + P12*K30/R12)/C31)</f>
-        <v>448</v>
+        <v>550</v>
       </c>
       <c r="K31" s="77">
         <f t="shared" si="3"/>
-        <v>192912</v>
+        <v>304303</v>
       </c>
       <c r="L31" s="34">
         <f t="shared" si="1"/>
-        <v>528578.88</v>
+        <v>833790.22</v>
       </c>
       <c r="M31" s="77">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="X31" s="21">
+      <c r="X31" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12551,17 +12554,17 @@
       </c>
       <c r="K32" s="80">
         <f t="shared" si="3"/>
-        <v>193165</v>
+        <v>304556</v>
       </c>
       <c r="L32" s="36">
         <f t="shared" si="1"/>
-        <v>571768.4</v>
+        <v>901485.76</v>
       </c>
       <c r="M32" s="80">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="X32" s="28">
+      <c r="X32" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12598,17 +12601,17 @@
       </c>
       <c r="K33" s="77">
         <f t="shared" si="3"/>
-        <v>193438</v>
+        <v>304829</v>
       </c>
       <c r="L33" s="34">
         <f t="shared" si="1"/>
-        <v>530020.12</v>
+        <v>835231.46</v>
       </c>
       <c r="M33" s="77">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="X33" s="21">
+      <c r="X33" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12645,17 +12648,17 @@
       </c>
       <c r="K34" s="80">
         <f t="shared" si="3"/>
-        <v>193712</v>
+        <v>305103</v>
       </c>
       <c r="L34" s="36">
         <f t="shared" si="1"/>
-        <v>528833.76</v>
+        <v>832931.19</v>
       </c>
       <c r="M34" s="80">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="X34" s="28">
+      <c r="X34" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12692,17 +12695,17 @@
       </c>
       <c r="K35" s="77">
         <f t="shared" si="3"/>
-        <v>193977</v>
+        <v>305368</v>
       </c>
       <c r="L35" s="34">
         <f t="shared" si="1"/>
-        <v>547015.14</v>
+        <v>861137.76</v>
       </c>
       <c r="M35" s="77">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="X35" s="21">
+      <c r="X35" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12739,17 +12742,17 @@
       </c>
       <c r="K36" s="80">
         <f t="shared" si="3"/>
-        <v>194256</v>
+        <v>305647</v>
       </c>
       <c r="L36" s="36">
         <f t="shared" si="1"/>
-        <v>520606.08</v>
+        <v>819133.96</v>
       </c>
       <c r="M36" s="80">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="X36" s="28">
+      <c r="X36" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12786,17 +12789,17 @@
       </c>
       <c r="K37" s="77">
         <f t="shared" si="3"/>
-        <v>194528</v>
+        <v>305919</v>
       </c>
       <c r="L37" s="34">
         <f t="shared" si="1"/>
-        <v>534952</v>
+        <v>841277.25</v>
       </c>
       <c r="M37" s="77">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="X37" s="21">
+      <c r="X37" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12833,17 +12836,17 @@
       </c>
       <c r="K38" s="80">
         <f t="shared" si="3"/>
-        <v>194847</v>
+        <v>306238</v>
       </c>
       <c r="L38" s="36">
         <f t="shared" si="1"/>
-        <v>457890.45</v>
+        <v>719659.3</v>
       </c>
       <c r="M38" s="80">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="X38" s="28">
+      <c r="X38" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12880,17 +12883,17 @@
       </c>
       <c r="K39" s="77">
         <f t="shared" si="3"/>
-        <v>195218</v>
+        <v>306609</v>
       </c>
       <c r="L39" s="34">
         <f t="shared" si="1"/>
-        <v>394340.36</v>
+        <v>619350.18</v>
       </c>
       <c r="M39" s="77">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="X39" s="21">
+      <c r="X39" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12927,17 +12930,17 @@
       </c>
       <c r="K40" s="80">
         <f t="shared" si="3"/>
-        <v>195539</v>
+        <v>306930</v>
       </c>
       <c r="L40" s="36">
         <f t="shared" si="1"/>
-        <v>455605.87</v>
+        <v>715146.9</v>
       </c>
       <c r="M40" s="80">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="X40" s="28">
+      <c r="X40" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -12974,17 +12977,17 @@
       </c>
       <c r="K41" s="77">
         <f t="shared" si="3"/>
-        <v>195867</v>
+        <v>307258</v>
       </c>
       <c r="L41" s="34">
         <f t="shared" si="1"/>
-        <v>446576.76</v>
+        <v>700548.24</v>
       </c>
       <c r="M41" s="77">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="X41" s="21">
+      <c r="X41" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13021,17 +13024,17 @@
       </c>
       <c r="K42" s="80">
         <f t="shared" si="3"/>
-        <v>196154</v>
+        <v>307545</v>
       </c>
       <c r="L42" s="36">
         <f t="shared" si="1"/>
-        <v>511961.94</v>
+        <v>802692.45</v>
       </c>
       <c r="M42" s="80">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="X42" s="28">
+      <c r="X42" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13064,21 +13067,21 @@
       </c>
       <c r="J43" s="77">
         <f>ROUNDDOWN((-I43 + P13*K42/R13)/C43)</f>
-        <v>61089</v>
+        <v>95632</v>
       </c>
       <c r="K43" s="77">
         <f t="shared" si="3"/>
-        <v>257243</v>
+        <v>403177</v>
       </c>
       <c r="L43" s="34">
         <f t="shared" si="1"/>
-        <v>738287.41</v>
+        <v>1157117.99</v>
       </c>
       <c r="M43" s="77">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="X43" s="21">
+      <c r="X43" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13115,17 +13118,17 @@
       </c>
       <c r="K44" s="80">
         <f t="shared" si="3"/>
-        <v>257498</v>
+        <v>403432</v>
       </c>
       <c r="L44" s="36">
         <f t="shared" si="1"/>
-        <v>757044.12</v>
+        <v>1186090.08</v>
       </c>
       <c r="M44" s="80">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="X44" s="28">
+      <c r="X44" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13162,17 +13165,17 @@
       </c>
       <c r="K45" s="77">
         <f t="shared" si="3"/>
-        <v>257764</v>
+        <v>403698</v>
       </c>
       <c r="L45" s="34">
         <f t="shared" si="1"/>
-        <v>724316.84</v>
+        <v>1134391.38</v>
       </c>
       <c r="M45" s="77">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="X45" s="21">
+      <c r="X45" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13209,17 +13212,17 @@
       </c>
       <c r="K46" s="80">
         <f t="shared" si="3"/>
-        <v>258045</v>
+        <v>403979</v>
       </c>
       <c r="L46" s="36">
         <f t="shared" si="1"/>
-        <v>686399.7</v>
+        <v>1074584.14</v>
       </c>
       <c r="M46" s="80">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="X46" s="28">
+      <c r="X46" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13256,17 +13259,17 @@
       </c>
       <c r="K47" s="77">
         <f t="shared" si="3"/>
-        <v>258309</v>
+        <v>404243</v>
       </c>
       <c r="L47" s="34">
         <f t="shared" si="1"/>
-        <v>733597.56</v>
+        <v>1148050.12</v>
       </c>
       <c r="M47" s="77">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="X47" s="21">
+      <c r="X47" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13303,17 +13306,17 @@
       </c>
       <c r="K48" s="80">
         <f t="shared" si="3"/>
-        <v>258610</v>
+        <v>404544</v>
       </c>
       <c r="L48" s="36">
         <f t="shared" si="1"/>
-        <v>643938.9</v>
+        <v>1007314.56</v>
       </c>
       <c r="M48" s="80">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="X48" s="28">
+      <c r="X48" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13350,17 +13353,17 @@
       </c>
       <c r="K49" s="77">
         <f t="shared" si="3"/>
-        <v>258881</v>
+        <v>404815</v>
       </c>
       <c r="L49" s="34">
         <f t="shared" si="1"/>
-        <v>714511.56</v>
+        <v>1117289.4</v>
       </c>
       <c r="M49" s="77">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="X49" s="21">
+      <c r="X49" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13397,17 +13400,17 @@
       </c>
       <c r="K50" s="80">
         <f t="shared" si="3"/>
-        <v>259193</v>
+        <v>405127</v>
       </c>
       <c r="L50" s="36">
         <f t="shared" si="1"/>
-        <v>622063.2</v>
+        <v>972304.8</v>
       </c>
       <c r="M50" s="80">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="X50" s="28">
+      <c r="X50" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13444,17 +13447,17 @@
       </c>
       <c r="K51" s="77">
         <f t="shared" si="3"/>
-        <v>259509</v>
+        <v>405443</v>
       </c>
       <c r="L51" s="34">
         <f t="shared" si="1"/>
-        <v>615036.33</v>
+        <v>960899.91</v>
       </c>
       <c r="M51" s="77">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="X51" s="21">
+      <c r="X51" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13491,17 +13494,17 @@
       </c>
       <c r="K52" s="80">
         <f t="shared" si="3"/>
-        <v>259807</v>
+        <v>405741</v>
       </c>
       <c r="L52" s="36">
         <f t="shared" si="1"/>
-        <v>652115.57</v>
+        <v>1018409.91</v>
       </c>
       <c r="M52" s="80">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="X52" s="28">
+      <c r="X52" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13538,17 +13541,17 @@
       </c>
       <c r="K53" s="77">
         <f t="shared" si="3"/>
-        <v>260095</v>
+        <v>406029</v>
       </c>
       <c r="L53" s="34">
         <f t="shared" si="1"/>
-        <v>676247</v>
+        <v>1055675.4</v>
       </c>
       <c r="M53" s="77">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="X53" s="21">
+      <c r="X53" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13585,17 +13588,17 @@
       </c>
       <c r="K54" s="80">
         <f t="shared" si="3"/>
-        <v>260384</v>
+        <v>406318</v>
       </c>
       <c r="L54" s="36">
         <f t="shared" si="1"/>
-        <v>674394.56</v>
+        <v>1052363.62</v>
       </c>
       <c r="M54" s="80">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="X54" s="28">
+      <c r="X54" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13628,21 +13631,21 @@
       </c>
       <c r="J55" s="77">
         <f>ROUNDDOWN((-I55 + P14*K54)/C55)</f>
-        <v>96644</v>
+        <v>150645</v>
       </c>
       <c r="K55" s="77">
         <f t="shared" si="3"/>
-        <v>357028</v>
+        <v>556963</v>
       </c>
       <c r="L55" s="34">
         <f t="shared" si="1"/>
-        <v>917561.96</v>
+        <v>1431394.91</v>
       </c>
       <c r="M55" s="77">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="X55" s="21">
+      <c r="X55" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13679,17 +13682,17 @@
       </c>
       <c r="K56" s="80">
         <f t="shared" si="3"/>
-        <v>357320</v>
+        <v>557255</v>
       </c>
       <c r="L56" s="36">
         <f t="shared" si="1"/>
-        <v>914739.2</v>
+        <v>1426572.8</v>
       </c>
       <c r="M56" s="80">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="X56" s="28">
+      <c r="X56" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13726,17 +13729,17 @@
       </c>
       <c r="K57" s="77">
         <f t="shared" si="3"/>
-        <v>357606</v>
+        <v>557541</v>
       </c>
       <c r="L57" s="34">
         <f t="shared" si="1"/>
-        <v>936927.72</v>
+        <v>1460757.42</v>
       </c>
       <c r="M57" s="77">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="X57" s="21">
+      <c r="X57" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13773,17 +13776,17 @@
       </c>
       <c r="K58" s="80">
         <f t="shared" si="3"/>
-        <v>357884</v>
+        <v>557819</v>
       </c>
       <c r="L58" s="36">
         <f t="shared" si="1"/>
-        <v>962707.96</v>
+        <v>1500533.11</v>
       </c>
       <c r="M58" s="80">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="X58" s="28">
+      <c r="X58" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13820,17 +13823,17 @@
       </c>
       <c r="K59" s="77">
         <f t="shared" si="3"/>
-        <v>358170</v>
+        <v>558105</v>
       </c>
       <c r="L59" s="34">
         <f t="shared" si="1"/>
-        <v>938405.4</v>
+        <v>1462235.1</v>
       </c>
       <c r="M59" s="77">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="X59" s="21">
+      <c r="X59" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13867,17 +13870,17 @@
       </c>
       <c r="K60" s="80">
         <f t="shared" si="3"/>
-        <v>358450</v>
+        <v>558385</v>
       </c>
       <c r="L60" s="36">
         <f t="shared" si="1"/>
-        <v>957061.5</v>
+        <v>1490887.95</v>
       </c>
       <c r="M60" s="80">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="X60" s="28">
+      <c r="X60" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13914,17 +13917,17 @@
       </c>
       <c r="K61" s="77">
         <f t="shared" si="3"/>
-        <v>358706</v>
+        <v>558641</v>
       </c>
       <c r="L61" s="34">
         <f t="shared" si="1"/>
-        <v>1047421.52</v>
+        <v>1631231.72</v>
       </c>
       <c r="M61" s="77">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="X61" s="21">
+      <c r="X61" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -13961,17 +13964,17 @@
       </c>
       <c r="K62" s="80">
         <f t="shared" si="3"/>
-        <v>358950</v>
+        <v>558885</v>
       </c>
       <c r="L62" s="36">
         <f t="shared" si="1"/>
-        <v>1101976.5</v>
+        <v>1715776.95</v>
       </c>
       <c r="M62" s="80">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="X62" s="28">
+      <c r="X62" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14008,17 +14011,17 @@
       </c>
       <c r="K63" s="77">
         <f t="shared" si="3"/>
-        <v>359196</v>
+        <v>559131</v>
       </c>
       <c r="L63" s="34">
         <f t="shared" si="1"/>
-        <v>1091955.84</v>
+        <v>1699758.24</v>
       </c>
       <c r="M63" s="77">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="X63" s="21">
+      <c r="X63" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14055,17 +14058,17 @@
       </c>
       <c r="K64" s="80">
         <f t="shared" si="3"/>
-        <v>359456</v>
+        <v>559391</v>
       </c>
       <c r="L64" s="36">
         <f t="shared" si="1"/>
-        <v>1035233.28</v>
+        <v>1611046.08</v>
       </c>
       <c r="M64" s="80">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="X64" s="28">
+      <c r="X64" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14102,17 +14105,17 @@
       </c>
       <c r="K65" s="77">
         <f t="shared" si="3"/>
-        <v>359718</v>
+        <v>559653</v>
       </c>
       <c r="L65" s="34">
         <f t="shared" si="1"/>
-        <v>1028793.48</v>
+        <v>1600607.58</v>
       </c>
       <c r="M65" s="77">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="X65" s="21">
+      <c r="X65" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14149,17 +14152,17 @@
       </c>
       <c r="K66" s="80">
         <f t="shared" si="3"/>
-        <v>359959</v>
+        <v>559894</v>
       </c>
       <c r="L66" s="36">
         <f t="shared" si="1"/>
-        <v>1115872.9</v>
+        <v>1735671.4</v>
       </c>
       <c r="M66" s="80">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="X66" s="28">
+      <c r="X66" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14192,21 +14195,21 @@
       </c>
       <c r="J67" s="77">
         <f>ROUNDDOWN((-I67 + P15*K66)/C67)</f>
-        <v>92444</v>
+        <v>143649</v>
       </c>
       <c r="K67" s="77">
         <f t="shared" si="3"/>
-        <v>452403</v>
+        <v>703543</v>
       </c>
       <c r="L67" s="34">
         <f t="shared" si="1"/>
-        <v>1325540.79</v>
+        <v>2061380.99</v>
       </c>
       <c r="M67" s="77">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="X67" s="21">
+      <c r="X67" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14243,17 +14246,17 @@
       </c>
       <c r="K68" s="80">
         <f t="shared" si="3"/>
-        <v>452657</v>
+        <v>703797</v>
       </c>
       <c r="L68" s="36">
         <f t="shared" si="1"/>
-        <v>1335338.15</v>
+        <v>2076201.15</v>
       </c>
       <c r="M68" s="80">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="X68" s="28">
+      <c r="X68" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14290,17 +14293,17 @@
       </c>
       <c r="K69" s="77">
         <f t="shared" si="3"/>
-        <v>452910</v>
+        <v>704050</v>
       </c>
       <c r="L69" s="34">
         <f t="shared" si="1"/>
-        <v>1340613.6</v>
+        <v>2083988</v>
       </c>
       <c r="M69" s="77">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="X69" s="21">
+      <c r="X69" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14337,17 +14340,17 @@
       </c>
       <c r="K70" s="80">
         <f t="shared" si="3"/>
-        <v>453148</v>
+        <v>704288</v>
       </c>
       <c r="L70" s="36">
         <f t="shared" si="1"/>
-        <v>1427416.2</v>
+        <v>2218507.2</v>
       </c>
       <c r="M70" s="80">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="X70" s="28">
+      <c r="X70" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14384,17 +14387,17 @@
       </c>
       <c r="K71" s="77">
         <f t="shared" si="3"/>
-        <v>453390</v>
+        <v>704530</v>
       </c>
       <c r="L71" s="34">
         <f t="shared" si="1"/>
-        <v>1400975.1</v>
+        <v>2176997.7</v>
       </c>
       <c r="M71" s="77">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="X71" s="21">
+      <c r="X71" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14431,17 +14434,17 @@
       </c>
       <c r="K72" s="80">
         <f t="shared" si="3"/>
-        <v>453612</v>
+        <v>704752</v>
       </c>
       <c r="L72" s="36">
         <f t="shared" si="1"/>
-        <v>1528672.44</v>
+        <v>2375014.24</v>
       </c>
       <c r="M72" s="80">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="X72" s="28">
+      <c r="X72" s="12">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14478,17 +14481,17 @@
       </c>
       <c r="K73" s="77">
         <f t="shared" si="3"/>
-        <v>453845</v>
+        <v>704985</v>
       </c>
       <c r="L73" s="34">
         <f t="shared" si="1"/>
-        <v>1456842.45</v>
+        <v>2263001.85</v>
       </c>
       <c r="M73" s="77">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="X73" s="21">
+      <c r="X73" s="35">
         <f t="shared" si="5"/>
         <v>-750</v>
       </c>
@@ -14525,17 +14528,17 @@
       </c>
       <c r="K74" s="80">
         <f t="shared" si="3"/>
-        <v>454083</v>
+        <v>705223</v>
       </c>
       <c r="L74" s="36">
         <f t="shared" si="1"/>
-        <v>1430361.45</v>
+        <v>2221452.45</v>
       </c>
       <c r="M74" s="80">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="X74" s="28">
+      <c r="X74" s="12">
         <v>923041.4142000001</v>
       </c>
     </row>
@@ -14563,19 +14566,19 @@
       </c>
       <c r="I75" s="34">
         <f>L75</f>
-        <v>2065804.64</v>
+        <v>3208339.62</v>
       </c>
       <c r="J75" s="77">
         <f>ROUNDDOWN(P16*K74/C75)</f>
-        <v>185485</v>
+        <v>288071</v>
       </c>
       <c r="K75" s="77">
         <f t="shared" si="3"/>
-        <v>639568</v>
+        <v>993294</v>
       </c>
       <c r="L75" s="34">
         <f>K75 * C75</f>
-        <v>2065804.64</v>
+        <v>3208339.62</v>
       </c>
       <c r="M75" s="77">
         <f t="shared" si="4"/>
